--- a/DDAf_2022_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -111,7 +111,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -153,13 +153,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -177,7 +177,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -249,7 +249,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -261,7 +261,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -363,7 +363,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -381,7 +381,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -399,7 +399,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="172">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
   <si>
     <t>Tableau 19 : Intensité du commerce dans l’industrie manufacturière</t>
   </si>
@@ -1295,11 +1292,9 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1311,42 +1306,42 @@
     </row>
     <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="12">
         <v>30306.936087999999</v>
@@ -1375,10 +1370,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="15">
         <v>4024.1139720000001</v>
@@ -1407,10 +1402,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="19">
         <v>96.165109999999999</v>
@@ -1439,10 +1434,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="19">
         <v>399.21715599999999</v>
@@ -1471,10 +1466,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="19">
         <v>822.78443000000004</v>
@@ -1503,10 +1498,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="19">
         <v>2916.9730030000001</v>
@@ -1535,10 +1530,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="19">
         <v>2203.5666040000001</v>
@@ -1567,10 +1562,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="19">
         <v>28709.593295999999</v>
@@ -1599,10 +1594,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="15">
         <v>560.65117699999996</v>
@@ -1631,10 +1626,10 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="22">
         <v>1336.420783</v>
@@ -1663,10 +1658,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="26">
         <v>71376.421619000001</v>
@@ -1695,10 +1690,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="19">
         <v>99.109531000000004</v>
@@ -1727,10 +1722,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="C15" s="19">
         <v>3262.7795940000001</v>
@@ -1759,10 +1754,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="19">
         <v>46.972214999999998</v>
@@ -1791,10 +1786,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="12">
         <v>943.098928</v>
@@ -1823,10 +1818,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="12">
         <v>7264.7544959999996</v>
@@ -1855,10 +1850,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="C19" s="15">
         <v>1656.653806</v>
@@ -1887,10 +1882,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="C20" s="12">
         <v>3281.0562570000002</v>
@@ -1919,10 +1914,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="C21" s="12">
         <v>5626.5650699999997</v>
@@ -1951,10 +1946,10 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="C22" s="19">
         <v>6.1073149999999998</v>
@@ -1983,10 +1978,10 @@
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="26">
         <v>22187.097212000001</v>
@@ -2015,10 +2010,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="C24" s="19">
         <v>37.543894999999999</v>
@@ -2047,10 +2042,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="C25" s="19">
         <v>95.884664999999998</v>
@@ -2079,42 +2074,42 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="D26" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="C27" s="19">
         <v>1802.560414</v>
@@ -2143,10 +2138,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="C28" s="19">
         <v>2485.5476720000001</v>
@@ -2175,10 +2170,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="19">
         <v>1243.0107720000001</v>
@@ -2207,10 +2202,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="19">
         <v>125.844971</v>
@@ -2239,10 +2234,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="C31" s="19">
         <v>371.204071</v>
@@ -2271,10 +2266,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="19">
         <v>20.85661</v>
@@ -2303,10 +2298,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C33" s="19">
         <v>209.24942899999999</v>
@@ -2335,10 +2330,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="15">
         <v>1653.1432850000001</v>
@@ -2367,10 +2362,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="19">
         <v>2580.8297010000001</v>
@@ -2399,10 +2394,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="19">
         <v>1701.420046</v>
@@ -2431,10 +2426,10 @@
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="19">
         <v>900.46629800000005</v>
@@ -2463,10 +2458,10 @@
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="26">
         <v>13227.561829</v>
@@ -2495,10 +2490,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>84</v>
       </c>
       <c r="C39" s="12">
         <v>20167.132140000002</v>
@@ -2527,10 +2522,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="19">
         <v>8846.9260020000092</v>
@@ -2559,10 +2554,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="12">
         <v>23864.347616999999</v>
@@ -2591,10 +2586,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="C42" s="12">
         <v>2389.9274340000002</v>
@@ -2623,10 +2618,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="C43" s="19">
         <v>5760.9442840000002</v>
@@ -2655,10 +2650,10 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="C44" s="19">
         <v>1574.6051910000001</v>
@@ -2687,10 +2682,10 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="26">
         <v>62603.882667999998</v>
@@ -2719,10 +2714,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="C46" s="19">
         <v>711.21489699999995</v>
@@ -2751,10 +2746,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="C47" s="19">
         <v>913.46423000000095</v>
@@ -2783,10 +2778,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="C48" s="19">
         <v>7.9051460000000002</v>
@@ -2815,10 +2810,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C49" s="19">
         <v>7961.6048920000003</v>
@@ -2847,10 +2842,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="19">
         <v>109.47299099999999</v>
@@ -2879,10 +2874,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="C51" s="15">
         <v>7893.7250649999996</v>
@@ -2911,10 +2906,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="19">
         <v>3026.4433140000001</v>
@@ -2943,10 +2938,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="C53" s="19">
         <v>137.96562499999999</v>
@@ -2975,10 +2970,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="C54" s="19">
         <v>516.75092700000005</v>
@@ -3007,10 +3002,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="C55" s="19">
         <v>254.33302699999999</v>
@@ -3039,10 +3034,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="C56" s="19">
         <v>241.890818</v>
@@ -3071,10 +3066,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="C57" s="12">
         <v>50761.965856000003</v>
@@ -3103,10 +3098,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="C58" s="19">
         <v>1028.0598199999999</v>
@@ -3135,10 +3130,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="C59" s="19">
         <v>594.70973600000002</v>
@@ -3167,10 +3162,10 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="C60" s="15">
         <v>722.92489599999999</v>
@@ -3200,7 +3195,7 @@
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="26">
         <v>74882.431240000005</v>
@@ -3230,7 +3225,7 @@
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="32">
         <v>244277.39456799999</v>
@@ -3260,7 +3255,7 @@
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="32">
         <v>2056730.561278</v>
@@ -3290,7 +3285,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="36">
         <v>303749.66824299999</v>
@@ -3320,7 +3315,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="39">
         <v>295850.98865800002</v>
@@ -3350,7 +3345,7 @@
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="42">
         <v>2301007.955846</v>
@@ -3380,7 +3375,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="39">
         <v>48730.662145000002</v>
@@ -3410,7 +3405,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="39">
         <v>120708.104528</v>
@@ -3440,7 +3435,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="39">
         <v>7210.8909030000004</v>
@@ -3470,7 +3465,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="39">
         <v>52865.237371000003</v>
@@ -3500,7 +3495,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="39">
         <v>74882.431240000005</v>
@@ -3530,7 +3525,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="39">
         <v>9727.6814639999993</v>
@@ -3560,7 +3555,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="39">
         <v>76161.751719000007</v>
@@ -3590,7 +3585,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="39">
         <v>53756.956665999998</v>
@@ -3620,7 +3615,7 @@
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="42">
         <v>36656.943434000001</v>
@@ -3650,7 +3645,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="39">
         <v>119850.1277</v>
@@ -3680,7 +3675,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="39">
         <v>235113.86963</v>
@@ -3710,7 +3705,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="39">
         <v>269178.68172400002</v>
@@ -3740,7 +3735,7 @@
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="42">
         <v>972906.96122900001</v>
@@ -3770,7 +3765,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="39">
         <v>144605.78388599999</v>
@@ -3800,7 +3795,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="39">
         <v>687039.80136200006</v>
@@ -3830,7 +3825,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="39">
         <v>99671.6106820001</v>
@@ -3860,7 +3855,7 @@
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="42">
         <v>1369690.7599160001</v>
@@ -3890,7 +3885,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="39">
         <v>21764.011447000001</v>
@@ -3920,7 +3915,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" s="39">
         <v>2737.0625129999999</v>
@@ -3950,7 +3945,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="39">
         <v>154657.43872400001</v>
@@ -3980,7 +3975,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="39">
         <v>166493.08070300001</v>
@@ -4010,7 +4005,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="39">
         <v>67835.087786999997</v>
@@ -4040,7 +4035,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="39">
         <v>683072.81625699997</v>
@@ -4070,7 +4065,7 @@
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="42">
         <v>1191674.4310959999</v>
@@ -4100,7 +4095,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="39">
         <v>59000.973940000003</v>
@@ -4130,7 +4125,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="39">
         <v>17426.076240999999</v>
@@ -4160,7 +4155,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="39">
         <v>336.22356200000002</v>
@@ -4190,7 +4185,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="39">
         <v>13879.601273</v>
@@ -4220,7 +4215,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="39">
         <v>14465.595445000001</v>
@@ -4250,7 +4245,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C96" s="42">
         <v>93781.149776999999</v>
@@ -4280,7 +4275,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" s="39">
         <v>156376.24568399999</v>
@@ -4310,7 +4305,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C98" s="39">
         <v>133142.216572</v>
@@ -4340,7 +4335,7 @@
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" s="42">
         <v>91715.060679999995</v>
@@ -4381,7 +4376,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4395,7 +4390,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4409,7 +4404,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4423,7 +4418,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4437,7 +4432,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4473,7 +4468,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4497,7 +4492,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4510,7 +4505,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4534,7 +4529,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4547,7 +4542,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -4571,7 +4566,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="172">
   <si>
     <t>Tableau 19 : Intensité du commerce dans l’industrie manufacturière</t>
   </si>
@@ -489,19 +489,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -516,10 +519,10 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
+    <t>Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données.</t>
+  </si>
+  <si>
     <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
-  </si>
-  <si>
-    <t>Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
@@ -4128,28 +4131,28 @@
         <v>154</v>
       </c>
       <c r="C92" s="39">
-        <v>17426.076240999999</v>
+        <v>17394.689651000001</v>
       </c>
       <c r="D92" s="39">
-        <v>13865.397561</v>
+        <v>13759.125681</v>
       </c>
       <c r="E92" s="39">
-        <v>79756.418655000001</v>
+        <v>79731.397599999997</v>
       </c>
       <c r="F92" s="40">
-        <v>111047.89245699999</v>
+        <v>110885.21293199999</v>
       </c>
       <c r="G92" s="39">
-        <v>14137.514834</v>
+        <v>14130.729542999999</v>
       </c>
       <c r="H92" s="39">
-        <v>97132.705942999994</v>
+        <v>96990.421031000005</v>
       </c>
       <c r="I92" s="39">
-        <v>41842.921270999999</v>
+        <v>41725.939704999997</v>
       </c>
       <c r="J92" s="40">
-        <v>153113.14204800001</v>
+        <v>152847.090279</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
@@ -4245,7 +4248,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="42">
         <v>93781.149776999999</v>
@@ -4275,7 +4278,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" s="39">
         <v>156376.24568399999</v>
@@ -4305,7 +4308,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C98" s="39">
         <v>133142.216572</v>
@@ -4335,7 +4338,7 @@
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C99" s="42">
         <v>91715.060679999995</v>
@@ -4376,7 +4379,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4390,7 +4393,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4404,7 +4407,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4418,7 +4421,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4432,7 +4435,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4468,7 +4471,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4492,7 +4495,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4505,7 +4508,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4529,7 +4532,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4542,7 +4545,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="163">
   <si>
     <t>Tableau 19 : Intensité du commerce dans l’industrie manufacturière</t>
   </si>
@@ -33,30 +33,6 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>Exportations totales de produits non transformés (millions de dollars US), 2019</t>
-  </si>
-  <si>
-    <t>Exportations totales de produits semi-transformés (millions de dollars US), 2019</t>
-  </si>
-  <si>
-    <t>Total des exportations de produits transformés (millions de dollars US), 2019</t>
-  </si>
-  <si>
-    <t>Exportations totales de produits transformés et non transformés (millions de dollars US), 2019</t>
-  </si>
-  <si>
-    <t>Importations totales de produits non transformés (millions de dollars US), 2019</t>
-  </si>
-  <si>
-    <t>Importations totales de produits semi-transformés (millions de dollars US), 2019</t>
-  </si>
-  <si>
-    <t>Importations totales de produits transformés (millions de dollars US), 2019</t>
-  </si>
-  <si>
-    <t>Importations totales de produits transformés et non transformés (millions de dollars US), 2019</t>
-  </si>
-  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -196,9 +172,6 @@
   </si>
   <si>
     <t>Érythrée</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>ETH</t>
@@ -1307,3062 +1280,3062 @@
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>10</v>
+      <c r="C2" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2" s="9" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" s="12">
-        <v>30306.936087999999</v>
+        <v>19275.515809</v>
       </c>
       <c r="D3" s="12">
-        <v>816.81574499999999</v>
+        <v>390.39939600000002</v>
       </c>
       <c r="E3" s="12">
-        <v>1851.171758</v>
+        <v>1350.488439</v>
       </c>
       <c r="F3" s="13">
-        <v>32974.923590999999</v>
+        <v>21016.403644000002</v>
       </c>
       <c r="G3" s="12">
-        <v>917.54025999999999</v>
+        <v>345.02898599999997</v>
       </c>
       <c r="H3" s="12">
-        <v>5525.8996450000004</v>
+        <v>4320.3546749999996</v>
       </c>
       <c r="I3" s="12">
-        <v>3080.749061</v>
+        <v>2677.497468</v>
       </c>
       <c r="J3" s="13">
-        <v>9524.1889659999997</v>
+        <v>7342.8811290000003</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C4" s="15">
-        <v>4024.1139720000001</v>
+        <v>3465.958533</v>
       </c>
       <c r="D4" s="15">
-        <v>1233.3335689999999</v>
+        <v>1016.890413</v>
       </c>
       <c r="E4" s="15">
-        <v>91.744177000000093</v>
+        <v>92.214207999999999</v>
       </c>
       <c r="F4" s="16">
-        <v>5349.191718</v>
+        <v>4575.0631540000004</v>
       </c>
       <c r="G4" s="15">
-        <v>1668.5767699999999</v>
+        <v>1893.8968809999999</v>
       </c>
       <c r="H4" s="15">
-        <v>3071.0180300000002</v>
+        <v>2485.8174730000001</v>
       </c>
       <c r="I4" s="15">
-        <v>2025.633118</v>
+        <v>1746.4179509999999</v>
       </c>
       <c r="J4" s="16">
-        <v>6765.2279179999996</v>
+        <v>6126.1323049999901</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" s="19">
-        <v>96.165109999999999</v>
+        <v>79.594103000000104</v>
       </c>
       <c r="D5" s="19">
-        <v>3224.2764820000002</v>
+        <v>1542.3468989999999</v>
       </c>
       <c r="E5" s="19">
-        <v>295.59368999999998</v>
+        <v>312.86502200000001</v>
       </c>
       <c r="F5" s="20">
-        <v>3616.0352819999998</v>
+        <v>1934.806024</v>
       </c>
       <c r="G5" s="19">
-        <v>174.49162699999999</v>
+        <v>186.751453</v>
       </c>
       <c r="H5" s="19">
-        <v>1184.455551</v>
+        <v>928.69644300000004</v>
       </c>
       <c r="I5" s="19">
-        <v>611.90113299999996</v>
+        <v>514.77211599999998</v>
       </c>
       <c r="J5" s="20">
-        <v>1970.848311</v>
+        <v>1630.220012</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="19">
-        <v>399.21715599999999</v>
+        <v>387.15373499999998</v>
       </c>
       <c r="D6" s="19">
-        <v>227.85778199999999</v>
+        <v>154.45112399999999</v>
       </c>
       <c r="E6" s="19">
-        <v>513.01229499999999</v>
+        <v>423.55007000000001</v>
       </c>
       <c r="F6" s="20">
-        <v>1140.087233</v>
+        <v>965.15492900000004</v>
       </c>
       <c r="G6" s="19">
-        <v>96.589005999999998</v>
+        <v>100.739394</v>
       </c>
       <c r="H6" s="19">
-        <v>938.09507499999995</v>
+        <v>938.15531499999997</v>
       </c>
       <c r="I6" s="19">
-        <v>492.25601</v>
+        <v>461.18939</v>
       </c>
       <c r="J6" s="20">
-        <v>1526.9400909999999</v>
+        <v>1500.0840989999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" s="19">
-        <v>822.78443000000004</v>
+        <v>731.34260500000005</v>
       </c>
       <c r="D7" s="19">
-        <v>161.34960899999999</v>
+        <v>181.96980199999999</v>
       </c>
       <c r="E7" s="19">
-        <v>61.567976999999999</v>
+        <v>31.923736000000002</v>
       </c>
       <c r="F7" s="20">
-        <v>1045.702016</v>
+        <v>945.23614299999997</v>
       </c>
       <c r="G7" s="19">
-        <v>200.56258500000001</v>
+        <v>259.30237</v>
       </c>
       <c r="H7" s="19">
-        <v>1660.5011119999999</v>
+        <v>1447.175982</v>
       </c>
       <c r="I7" s="19">
-        <v>942.25875699999995</v>
+        <v>828.17042200000003</v>
       </c>
       <c r="J7" s="20">
-        <v>2803.3224540000001</v>
+        <v>2534.6487739999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" s="19">
-        <v>2916.9730030000001</v>
+        <v>2299.070526</v>
       </c>
       <c r="D8" s="19">
-        <v>2041.648289</v>
+        <v>2333.3955340000002</v>
       </c>
       <c r="E8" s="19">
-        <v>704.05178000000001</v>
+        <v>695.13399900000002</v>
       </c>
       <c r="F8" s="20">
-        <v>5662.6730719999996</v>
+        <v>5327.6000590000003</v>
       </c>
       <c r="G8" s="19">
-        <v>1790.620635</v>
+        <v>1721.268382</v>
       </c>
       <c r="H8" s="19">
-        <v>7129.658214</v>
+        <v>6633.6364240000003</v>
       </c>
       <c r="I8" s="19">
-        <v>2729.9794729999999</v>
+        <v>2577.4005360000001</v>
       </c>
       <c r="J8" s="20">
-        <v>11650.258322</v>
+        <v>10932.305342</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C9" s="19">
-        <v>2203.5666040000001</v>
+        <v>1200.4368910000001</v>
       </c>
       <c r="D9" s="19">
-        <v>4276.2917049999996</v>
+        <v>4703.0477460000002</v>
       </c>
       <c r="E9" s="19">
-        <v>522.22571700000003</v>
+        <v>310.91714200000001</v>
       </c>
       <c r="F9" s="20">
-        <v>7002.0840260000004</v>
+        <v>6214.4017789999998</v>
       </c>
       <c r="G9" s="19">
-        <v>865.38842799999998</v>
+        <v>808.09308999999996</v>
       </c>
       <c r="H9" s="19">
-        <v>4439.7909829999999</v>
+        <v>4056.7648279999999</v>
       </c>
       <c r="I9" s="19">
-        <v>2232.4042119999999</v>
+        <v>1752.8092320000001</v>
       </c>
       <c r="J9" s="20">
-        <v>7537.5836230000004</v>
+        <v>6617.6671500000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10" s="19">
-        <v>28709.593295999999</v>
+        <v>27435.975818999999</v>
       </c>
       <c r="D10" s="19">
-        <v>57843.415209999999</v>
+        <v>54809.456952</v>
       </c>
       <c r="E10" s="19">
-        <v>21977.827791</v>
+        <v>20055.084825999998</v>
       </c>
       <c r="F10" s="20">
-        <v>108530.836297</v>
+        <v>102300.517597</v>
       </c>
       <c r="G10" s="19">
-        <v>12288.485452000001</v>
+        <v>8073.8474420000002</v>
       </c>
       <c r="H10" s="19">
-        <v>44320.451786999998</v>
+        <v>37305.472498000003</v>
       </c>
       <c r="I10" s="19">
-        <v>32068.014747000001</v>
+        <v>25856.203227000002</v>
       </c>
       <c r="J10" s="20">
-        <v>88676.951986</v>
+        <v>71235.523167000007</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C11" s="15">
-        <v>560.65117699999996</v>
+        <v>741.65893100000005</v>
       </c>
       <c r="D11" s="15">
-        <v>9157.7407550000007</v>
+        <v>9885.6742630000008</v>
       </c>
       <c r="E11" s="15">
-        <v>344.644408</v>
+        <v>324.79934200000002</v>
       </c>
       <c r="F11" s="16">
-        <v>10063.036340000001</v>
+        <v>10952.132535999999</v>
       </c>
       <c r="G11" s="15">
-        <v>828.35107600000003</v>
+        <v>492.99676199999999</v>
       </c>
       <c r="H11" s="15">
-        <v>4227.8500999999997</v>
+        <v>3456.345382</v>
       </c>
       <c r="I11" s="15">
-        <v>2280.7014909999998</v>
+        <v>1833.7370679999999</v>
       </c>
       <c r="J11" s="16">
-        <v>7336.9026670000003</v>
+        <v>5783.0792119999996</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" s="22">
-        <v>1336.420783</v>
+        <v>1214.519031</v>
       </c>
       <c r="D12" s="22">
-        <v>2334.2029149999998</v>
+        <v>2801.3762109999998</v>
       </c>
       <c r="E12" s="22">
-        <v>386.892156</v>
+        <v>326.14409799999999</v>
       </c>
       <c r="F12" s="23">
-        <v>4057.5158540000002</v>
+        <v>4342.0393400000003</v>
       </c>
       <c r="G12" s="22">
-        <v>179.30834999999999</v>
+        <v>464.93840299999999</v>
       </c>
       <c r="H12" s="22">
-        <v>3229.7</v>
+        <v>2905.927428</v>
       </c>
       <c r="I12" s="22">
-        <v>1428.801811</v>
+        <v>1734.833384</v>
       </c>
       <c r="J12" s="23">
-        <v>4837.8101609999903</v>
+        <v>5105.6992149999996</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C13" s="26">
-        <v>71376.421619000001</v>
+        <v>56831.225982999997</v>
       </c>
       <c r="D13" s="26">
-        <v>81316.932061</v>
+        <v>77819.00834</v>
       </c>
       <c r="E13" s="26">
-        <v>26748.731748999999</v>
+        <v>23923.120881999999</v>
       </c>
       <c r="F13" s="27">
-        <v>179442.085429</v>
+        <v>158573.355205</v>
       </c>
       <c r="G13" s="26">
-        <v>19009.914188999999</v>
+        <v>14346.863163</v>
       </c>
       <c r="H13" s="26">
-        <v>75727.420496999999</v>
+        <v>64478.346447999997</v>
       </c>
       <c r="I13" s="26">
-        <v>47892.699812999999</v>
+        <v>39983.030793999998</v>
       </c>
       <c r="J13" s="27">
-        <v>142630.034499</v>
+        <v>118808.240405</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" s="19">
-        <v>99.109531000000004</v>
+        <v>81.170609999999996</v>
       </c>
       <c r="D14" s="19">
-        <v>167.48671200000001</v>
+        <v>126.613348</v>
       </c>
       <c r="E14" s="19">
-        <v>11.545531</v>
+        <v>10.597661</v>
       </c>
       <c r="F14" s="20">
-        <v>278.141774</v>
+        <v>218.381619</v>
       </c>
       <c r="G14" s="19">
-        <v>66.782191999999995</v>
+        <v>64.101162000000002</v>
       </c>
       <c r="H14" s="19">
-        <v>555.62728500000003</v>
+        <v>561.69447500000001</v>
       </c>
       <c r="I14" s="19">
-        <v>255.119416</v>
+        <v>286.008105</v>
       </c>
       <c r="J14" s="20">
-        <v>877.52889300000004</v>
+        <v>911.80374200000006</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C15" s="19">
-        <v>3262.7795940000001</v>
+        <v>2456.588933</v>
       </c>
       <c r="D15" s="19">
-        <v>1440.7897519999999</v>
+        <v>952.68589599999996</v>
       </c>
       <c r="E15" s="19">
-        <v>509.12390499999998</v>
+        <v>290.34248400000001</v>
       </c>
       <c r="F15" s="20">
-        <v>5212.6932509999997</v>
+        <v>3699.6173130000002</v>
       </c>
       <c r="G15" s="19">
-        <v>1050.9428929999999</v>
+        <v>1302.509472</v>
       </c>
       <c r="H15" s="19">
-        <v>2906.8169710000002</v>
+        <v>3044.4565040000002</v>
       </c>
       <c r="I15" s="19">
-        <v>2110.4044800000001</v>
+        <v>2386.2634509999998</v>
       </c>
       <c r="J15" s="20">
-        <v>6068.1643439999998</v>
+        <v>6733.2294270000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C16" s="19">
-        <v>46.972214999999998</v>
+        <v>69.380066999999997</v>
       </c>
       <c r="D16" s="19">
-        <v>29.376659</v>
+        <v>55.413077999999999</v>
       </c>
       <c r="E16" s="19">
-        <v>3.540181</v>
+        <v>2.8059430000000001</v>
       </c>
       <c r="F16" s="20">
-        <v>79.889054999999999</v>
+        <v>127.59908799999999</v>
       </c>
       <c r="G16" s="19">
-        <v>14.038937000000001</v>
+        <v>13.437360999999999</v>
       </c>
       <c r="H16" s="19">
-        <v>153.044997</v>
+        <v>153.24754799999999</v>
       </c>
       <c r="I16" s="19">
-        <v>132.76809600000001</v>
+        <v>124.49952399999999</v>
       </c>
       <c r="J16" s="20">
-        <v>299.85203000000001</v>
+        <v>291.18443300000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C17" s="12">
-        <v>943.098928</v>
+        <v>1290.262195</v>
       </c>
       <c r="D17" s="12">
-        <v>254.227318</v>
+        <v>220.37930600000001</v>
       </c>
       <c r="E17" s="12">
-        <v>1.5265949999999999</v>
+        <v>1.7575320000000001</v>
       </c>
       <c r="F17" s="13">
-        <v>1198.8528409999999</v>
+        <v>1512.3990329999999</v>
       </c>
       <c r="G17" s="12">
-        <v>16.821527</v>
+        <v>30.898774</v>
       </c>
       <c r="H17" s="12">
-        <v>486.35761500000001</v>
+        <v>441.72828600000003</v>
       </c>
       <c r="I17" s="12">
-        <v>461.53813100000002</v>
+        <v>539.13747699999999</v>
       </c>
       <c r="J17" s="13">
-        <v>964.71727299999895</v>
+        <v>1011.764537</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C18" s="12">
-        <v>7264.7544959999996</v>
+        <v>4055.854546</v>
       </c>
       <c r="D18" s="12">
-        <v>3141.2515490000001</v>
+        <v>2890.8817309999999</v>
       </c>
       <c r="E18" s="12">
-        <v>398.52513399999998</v>
+        <v>847.64956299999994</v>
       </c>
       <c r="F18" s="13">
-        <v>10804.531179</v>
+        <v>7794.3858399999999</v>
       </c>
       <c r="G18" s="12">
-        <v>240.69268400000001</v>
+        <v>235.04656700000001</v>
       </c>
       <c r="H18" s="12">
-        <v>1482.006517</v>
+        <v>1456.3562810000001</v>
       </c>
       <c r="I18" s="12">
-        <v>1130.3543930000001</v>
+        <v>1078.169476</v>
       </c>
       <c r="J18" s="13">
-        <v>2853.053594</v>
+        <v>2769.5723240000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C19" s="15">
-        <v>1656.653806</v>
+        <v>1468.6187890000001</v>
       </c>
       <c r="D19" s="15">
-        <v>6505.3616009999996</v>
+        <v>17438.251027999999</v>
       </c>
       <c r="E19" s="15">
-        <v>29.331244999999999</v>
+        <v>78.658951999999999</v>
       </c>
       <c r="F19" s="16">
-        <v>8191.3466520000002</v>
+        <v>18985.528769</v>
       </c>
       <c r="G19" s="15">
-        <v>291.12570599999998</v>
+        <v>708.44608400000004</v>
       </c>
       <c r="H19" s="15">
-        <v>4337.6682959999998</v>
+        <v>5598.5235679999996</v>
       </c>
       <c r="I19" s="15">
-        <v>2650.4513940000002</v>
+        <v>2471.9921260000001</v>
       </c>
       <c r="J19" s="16">
-        <v>7279.2453960000003</v>
+        <v>8778.9617780000008</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C20" s="12">
-        <v>3281.0562570000002</v>
+        <v>2006.9213010000001</v>
       </c>
       <c r="D20" s="12">
-        <v>299.22411299999999</v>
+        <v>115.48016800000001</v>
       </c>
       <c r="E20" s="12">
-        <v>924.77183100000002</v>
+        <v>530.78367100000003</v>
       </c>
       <c r="F20" s="13">
-        <v>4505.0522010000004</v>
+        <v>2653.18514</v>
       </c>
       <c r="G20" s="12">
-        <v>22.158646000000001</v>
+        <v>285.13646699999998</v>
       </c>
       <c r="H20" s="12">
-        <v>663.55618000000004</v>
+        <v>566.48206800000003</v>
       </c>
       <c r="I20" s="12">
-        <v>291.87586399999998</v>
+        <v>350.33506399999999</v>
       </c>
       <c r="J20" s="13">
-        <v>977.59069</v>
+        <v>1201.9535989999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C21" s="12">
-        <v>5626.5650699999997</v>
+        <v>3638.3663809999998</v>
       </c>
       <c r="D21" s="12">
-        <v>789.35965799999997</v>
+        <v>681.28901900000005</v>
       </c>
       <c r="E21" s="12">
-        <v>66.236249000000001</v>
+        <v>33.984059000000002</v>
       </c>
       <c r="F21" s="13">
-        <v>6482.1609769999995</v>
+        <v>4353.639459</v>
       </c>
       <c r="G21" s="12">
-        <v>74.914906000000002</v>
+        <v>71.839884999999995</v>
       </c>
       <c r="H21" s="12">
-        <v>1308.1405830000001</v>
+        <v>1165.1663980000001</v>
       </c>
       <c r="I21" s="12">
-        <v>893.86877800000002</v>
+        <v>972.09451000000104</v>
       </c>
       <c r="J21" s="13">
-        <v>2276.9242669999999</v>
+        <v>2209.1007930000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C22" s="19">
-        <v>6.1073149999999998</v>
+        <v>4.0861780000000003</v>
       </c>
       <c r="D22" s="19">
-        <v>14.871669000000001</v>
+        <v>17.999922000000002</v>
       </c>
       <c r="E22" s="19">
-        <v>1.792351</v>
+        <v>1.7689699999999999</v>
       </c>
       <c r="F22" s="20">
-        <v>22.771335000000001</v>
+        <v>23.855070000000001</v>
       </c>
       <c r="G22" s="19">
-        <v>7.0857109999999999</v>
+        <v>5.9560709999999997</v>
       </c>
       <c r="H22" s="19">
-        <v>111.137626</v>
+        <v>65.825519999999997</v>
       </c>
       <c r="I22" s="19">
-        <v>45.316625999999999</v>
+        <v>37.630412999999997</v>
       </c>
       <c r="J22" s="20">
-        <v>163.539963</v>
+        <v>109.412004</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C23" s="26">
-        <v>22187.097212000001</v>
+        <v>15071.249</v>
       </c>
       <c r="D23" s="26">
-        <v>12641.949031</v>
+        <v>22498.993495999999</v>
       </c>
       <c r="E23" s="26">
-        <v>1946.393022</v>
+        <v>1798.348835</v>
       </c>
       <c r="F23" s="27">
-        <v>36775.439265000001</v>
+        <v>39368.591331000003</v>
       </c>
       <c r="G23" s="26">
-        <v>1784.563202</v>
+        <v>2717.3718429999999</v>
       </c>
       <c r="H23" s="26">
-        <v>12004.35607</v>
+        <v>13053.480648000001</v>
       </c>
       <c r="I23" s="26">
-        <v>7971.6971780000003</v>
+        <v>8246.1301459999995</v>
       </c>
       <c r="J23" s="27">
-        <v>21760.616450000001</v>
+        <v>24016.982637000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C24" s="19">
-        <v>37.543894999999999</v>
+        <v>29.196867000000001</v>
       </c>
       <c r="D24" s="19">
-        <v>20.872748000000001</v>
+        <v>9.7396670000000007</v>
       </c>
       <c r="E24" s="19">
-        <v>14.262238</v>
+        <v>15.119479999999999</v>
       </c>
       <c r="F24" s="20">
-        <v>72.678881000000104</v>
+        <v>54.056013999999998</v>
       </c>
       <c r="G24" s="19">
-        <v>10.928588</v>
+        <v>11.184137</v>
       </c>
       <c r="H24" s="19">
-        <v>222.04442700000001</v>
+        <v>230.977779</v>
       </c>
       <c r="I24" s="19">
-        <v>109.950306</v>
+        <v>103.414496</v>
       </c>
       <c r="J24" s="20">
-        <v>342.92332099999999</v>
+        <v>345.576412</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C25" s="19">
-        <v>95.884664999999998</v>
+        <v>50.164791999999998</v>
       </c>
       <c r="D25" s="19">
-        <v>27.840160000000001</v>
+        <v>100.342921</v>
       </c>
       <c r="E25" s="19">
-        <v>9.3565819999999995</v>
+        <v>8.8272870000000001</v>
       </c>
       <c r="F25" s="20">
-        <v>133.08140700000001</v>
+        <v>159.33500000000001</v>
       </c>
       <c r="G25" s="19">
-        <v>148.17659800000001</v>
+        <v>251.92772299999999</v>
       </c>
       <c r="H25" s="19">
-        <v>3291.0853539999998</v>
+        <v>3334.9568859999999</v>
       </c>
       <c r="I25" s="19">
-        <v>1660.680249</v>
+        <v>1784.8927940000001</v>
       </c>
       <c r="J25" s="20">
-        <v>5099.9422009999998</v>
+        <v>5371.777403</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="C26" s="19">
+        <v>326.34698400000002</v>
+      </c>
+      <c r="D26" s="19">
+        <v>267.66245500000002</v>
+      </c>
+      <c r="E26" s="19">
+        <v>2.9983529999999998</v>
+      </c>
+      <c r="F26" s="20">
+        <v>597.00779199999999</v>
+      </c>
+      <c r="G26" s="19">
+        <v>25.204152000000001</v>
+      </c>
+      <c r="H26" s="19">
+        <v>207.33981700000001</v>
+      </c>
+      <c r="I26" s="19">
+        <v>128.61150799999999</v>
+      </c>
+      <c r="J26" s="20">
+        <v>361.15547700000002</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C27" s="19">
-        <v>1802.560414</v>
+        <v>1996.9783279999999</v>
       </c>
       <c r="D27" s="19">
-        <v>657.68556000000001</v>
+        <v>827.70846700000004</v>
       </c>
       <c r="E27" s="19">
-        <v>659.22321499999998</v>
+        <v>669.63043900000105</v>
       </c>
       <c r="F27" s="20">
-        <v>3119.4691889999999</v>
+        <v>3494.3172340000001</v>
       </c>
       <c r="G27" s="19">
-        <v>257.62036899999998</v>
+        <v>596.39235499999995</v>
       </c>
       <c r="H27" s="19">
-        <v>4773.6785239999999</v>
+        <v>6493.2977620000001</v>
       </c>
       <c r="I27" s="19">
-        <v>3919.8925730000001</v>
+        <v>3934.7349789999998</v>
       </c>
       <c r="J27" s="20">
-        <v>8951.1914660000002</v>
+        <v>11024.425096000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C28" s="19">
-        <v>2485.5476720000001</v>
+        <v>2711.9170880000001</v>
       </c>
       <c r="D28" s="19">
-        <v>1955.1041640000001</v>
+        <v>2097.7981159999999</v>
       </c>
       <c r="E28" s="19">
-        <v>1806.9524180000001</v>
+        <v>1712.0940310000001</v>
       </c>
       <c r="F28" s="20">
-        <v>6247.6042539999999</v>
+        <v>6521.8092349999997</v>
       </c>
       <c r="G28" s="19">
-        <v>1223.3470239999999</v>
+        <v>1199.7483380000001</v>
       </c>
       <c r="H28" s="19">
-        <v>11442.10432</v>
+        <v>10989.977914999999</v>
       </c>
       <c r="I28" s="19">
-        <v>6154.7677709999998</v>
+        <v>6153.5879839999998</v>
       </c>
       <c r="J28" s="20">
-        <v>18820.219115</v>
+        <v>18343.314236999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C29" s="19">
-        <v>1243.0107720000001</v>
+        <v>1136.3919310000001</v>
       </c>
       <c r="D29" s="19">
-        <v>1214.2643149999999</v>
+        <v>691.33108900000002</v>
       </c>
       <c r="E29" s="19">
-        <v>718.60499500000003</v>
+        <v>619.98128199999996</v>
       </c>
       <c r="F29" s="20">
-        <v>3175.8800820000001</v>
+        <v>2447.7043020000001</v>
       </c>
       <c r="G29" s="19">
-        <v>241.356482</v>
+        <v>123.633315</v>
       </c>
       <c r="H29" s="19">
-        <v>2631.0973519999998</v>
+        <v>2399.642198</v>
       </c>
       <c r="I29" s="19">
-        <v>1085.128228</v>
+        <v>960.72458300000096</v>
       </c>
       <c r="J29" s="20">
-        <v>3957.582062</v>
+        <v>3484.0000960000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C30" s="19">
-        <v>125.844971</v>
+        <v>158.708563</v>
       </c>
       <c r="D30" s="19">
-        <v>1412.954667</v>
+        <v>1178.0286759999999</v>
       </c>
       <c r="E30" s="19">
-        <v>992.64406399999996</v>
+        <v>709.90427099999999</v>
       </c>
       <c r="F30" s="20">
-        <v>2531.443702</v>
+        <v>2046.6415099999999</v>
       </c>
       <c r="G30" s="19">
-        <v>455.210938</v>
+        <v>357.93169499999999</v>
       </c>
       <c r="H30" s="19">
-        <v>3286.5596780000001</v>
+        <v>2597.4905739999999</v>
       </c>
       <c r="I30" s="19">
-        <v>2230.3741730000002</v>
+        <v>1492.7959430000001</v>
       </c>
       <c r="J30" s="20">
-        <v>5972.1447889999899</v>
+        <v>4448.2182119999998</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C31" s="19">
-        <v>371.204071</v>
+        <v>210.162148</v>
       </c>
       <c r="D31" s="19">
-        <v>881.42334000000005</v>
+        <v>675.25333499999999</v>
       </c>
       <c r="E31" s="19">
-        <v>86.998718000000096</v>
+        <v>18.361566</v>
       </c>
       <c r="F31" s="20">
-        <v>1339.626129</v>
+        <v>903.77704900000003</v>
       </c>
       <c r="G31" s="19">
-        <v>169.52852200000001</v>
+        <v>56.365231000000001</v>
       </c>
       <c r="H31" s="19">
-        <v>1841.123576</v>
+        <v>689.56425400000001</v>
       </c>
       <c r="I31" s="19">
-        <v>801.08637999999996</v>
+        <v>609.97220600000003</v>
       </c>
       <c r="J31" s="20">
-        <v>2811.7384780000002</v>
+        <v>1355.901691</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C32" s="19">
-        <v>20.85661</v>
+        <v>16.721546</v>
       </c>
       <c r="D32" s="19">
-        <v>722.91956100000004</v>
+        <v>635.24929999999995</v>
       </c>
       <c r="E32" s="19">
-        <v>207.67191700000001</v>
+        <v>515.23607600000003</v>
       </c>
       <c r="F32" s="20">
-        <v>951.44808799999998</v>
+        <v>1167.2069220000001</v>
       </c>
       <c r="G32" s="19">
-        <v>53.029798</v>
+        <v>36.291671000000001</v>
       </c>
       <c r="H32" s="19">
-        <v>740.77686800000004</v>
+        <v>693.86955499999999</v>
       </c>
       <c r="I32" s="19">
-        <v>749.48535600000002</v>
+        <v>829.92537200000004</v>
       </c>
       <c r="J32" s="20">
-        <v>1543.2920220000001</v>
+        <v>1560.0865980000001</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C33" s="19">
-        <v>209.24942899999999</v>
+        <v>140.90521100000001</v>
       </c>
       <c r="D33" s="19">
-        <v>198.166843</v>
+        <v>128.90682000000001</v>
       </c>
       <c r="E33" s="19">
-        <v>11.526289</v>
+        <v>6.3537860000000004</v>
       </c>
       <c r="F33" s="20">
-        <v>418.94256100000001</v>
+        <v>276.165817</v>
       </c>
       <c r="G33" s="19">
-        <v>141.55304100000001</v>
+        <v>412.53968099999997</v>
       </c>
       <c r="H33" s="19">
-        <v>1918.9545909999999</v>
+        <v>2010.1397199999999</v>
       </c>
       <c r="I33" s="19">
-        <v>1530.777376</v>
+        <v>1773.149973</v>
       </c>
       <c r="J33" s="20">
-        <v>3591.2850079999998</v>
+        <v>4195.8293739999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C34" s="15">
-        <v>1653.1432850000001</v>
+        <v>733.17847800000004</v>
       </c>
       <c r="D34" s="15">
-        <v>56.752930999999997</v>
+        <v>116.347634</v>
       </c>
       <c r="E34" s="15">
-        <v>0.61826800000000004</v>
+        <v>0.75673599999999996</v>
       </c>
       <c r="F34" s="16">
-        <v>1710.514484</v>
+        <v>850.28284799999994</v>
       </c>
       <c r="G34" s="15">
-        <v>29.106760999999999</v>
+        <v>102.545607</v>
       </c>
       <c r="H34" s="15">
-        <v>289.21948700000002</v>
+        <v>588.76258700000005</v>
       </c>
       <c r="I34" s="15">
-        <v>348.99594100000002</v>
+        <v>405.60001699999998</v>
       </c>
       <c r="J34" s="16">
-        <v>667.32218899999998</v>
+        <v>1096.9082109999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C35" s="19">
-        <v>2580.8297010000001</v>
+        <v>1933.0926059999999</v>
       </c>
       <c r="D35" s="19">
-        <v>1368.963</v>
+        <v>2092.969795</v>
       </c>
       <c r="E35" s="19">
-        <v>48.347417999999998</v>
+        <v>7.9442110000000001</v>
       </c>
       <c r="F35" s="20">
-        <v>3998.1401190000001</v>
+        <v>4034.0066120000001</v>
       </c>
       <c r="G35" s="19">
-        <v>641.68928900000003</v>
+        <v>868.11763900000005</v>
       </c>
       <c r="H35" s="19">
-        <v>3823.9166399999999</v>
+        <v>3999.450026</v>
       </c>
       <c r="I35" s="19">
-        <v>3010.5968170000001</v>
+        <v>3710.6645149999999</v>
       </c>
       <c r="J35" s="20">
-        <v>7476.2027459999999</v>
+        <v>8578.2321800000009</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C36" s="19">
-        <v>1701.420046</v>
+        <v>2175.2068039999999</v>
       </c>
       <c r="D36" s="19">
-        <v>2374.7744130000001</v>
+        <v>3551.5395199999998</v>
       </c>
       <c r="E36" s="19">
-        <v>200.685554</v>
+        <v>179.091116</v>
       </c>
       <c r="F36" s="20">
-        <v>4276.880013</v>
+        <v>5905.8374400000102</v>
       </c>
       <c r="G36" s="19">
-        <v>389.06081599999999</v>
+        <v>499.44465200000002</v>
       </c>
       <c r="H36" s="19">
-        <v>6694.3336750000099</v>
+        <v>7366.3818670000001</v>
       </c>
       <c r="I36" s="19">
-        <v>4141.7340700000004</v>
+        <v>4270.906817</v>
       </c>
       <c r="J36" s="20">
-        <v>11225.128561</v>
+        <v>12136.733335999999</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C37" s="19">
-        <v>900.46629800000005</v>
+        <v>1190.7273909999999</v>
       </c>
       <c r="D37" s="19">
-        <v>2019.4447849999999</v>
+        <v>4435.3426140000001</v>
       </c>
       <c r="E37" s="19">
-        <v>92.835267000000002</v>
+        <v>253.48289700000001</v>
       </c>
       <c r="F37" s="20">
-        <v>3012.7463499999999</v>
+        <v>5879.5529020000004</v>
       </c>
       <c r="G37" s="19">
-        <v>255.78290699999999</v>
+        <v>424.98716100000001</v>
       </c>
       <c r="H37" s="19">
-        <v>1804.2499680000001</v>
+        <v>5253.6301999999996</v>
       </c>
       <c r="I37" s="19">
-        <v>1775.142233</v>
+        <v>2284.9524710000001</v>
       </c>
       <c r="J37" s="20">
-        <v>3835.1751079999999</v>
+        <v>7963.5698320000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C38" s="26">
-        <v>13227.561829</v>
+        <v>12809.698737000001</v>
       </c>
       <c r="D38" s="26">
-        <v>12911.166487</v>
+        <v>16808.220409000001</v>
       </c>
       <c r="E38" s="26">
-        <v>4849.7269429999997</v>
+        <v>4719.7815309999996</v>
       </c>
       <c r="F38" s="27">
-        <v>30988.455258999998</v>
+        <v>34337.700677000001</v>
       </c>
       <c r="G38" s="26">
-        <v>4016.3911330000001</v>
+        <v>4966.313357</v>
       </c>
       <c r="H38" s="26">
-        <v>42759.144460000003</v>
+        <v>46855.481140000004</v>
       </c>
       <c r="I38" s="26">
-        <v>27518.611473000001</v>
+        <v>28443.933658000002</v>
       </c>
       <c r="J38" s="27">
-        <v>74294.147066000005</v>
+        <v>80265.728155000004</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C39" s="12">
-        <v>20167.132140000002</v>
+        <v>9810.4233700000004</v>
       </c>
       <c r="D39" s="12">
-        <v>8111.4278590000004</v>
+        <v>5253.5719660000004</v>
       </c>
       <c r="E39" s="12">
-        <v>4911.4754059999996</v>
+        <v>3755.4175070000001</v>
       </c>
       <c r="F39" s="13">
-        <v>33190.035405000002</v>
+        <v>18819.412842999998</v>
       </c>
       <c r="G39" s="12">
-        <v>3784.7743540000001</v>
+        <v>4442.4897600000004</v>
       </c>
       <c r="H39" s="12">
-        <v>22495.338620999999</v>
+        <v>16894.143087</v>
       </c>
       <c r="I39" s="12">
-        <v>13252.833466</v>
+        <v>9989.8591020000003</v>
       </c>
       <c r="J39" s="13">
-        <v>39532.946441</v>
+        <v>31326.491948999999</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C40" s="19">
-        <v>8846.9260020000092</v>
+        <v>6864.4154159999998</v>
       </c>
       <c r="D40" s="19">
-        <v>20176.648989000001</v>
+        <v>20441.421531</v>
       </c>
       <c r="E40" s="19">
-        <v>7672.5226469999898</v>
+        <v>6272.4799510000003</v>
       </c>
       <c r="F40" s="20">
-        <v>36696.097637999999</v>
+        <v>33578.316897999997</v>
       </c>
       <c r="G40" s="19">
-        <v>15735.696225</v>
+        <v>17059.761766</v>
       </c>
       <c r="H40" s="19">
-        <v>44325.630077000002</v>
+        <v>36139.273503999997</v>
       </c>
       <c r="I40" s="19">
-        <v>22235.731673999999</v>
+        <v>22638.711757000001</v>
       </c>
       <c r="J40" s="20">
-        <v>82297.057975999895</v>
+        <v>75837.747027000107</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C41" s="12">
-        <v>23864.347616999999</v>
+        <v>6330.2964540000003</v>
       </c>
       <c r="D41" s="12">
-        <v>2198.3650750000002</v>
+        <v>1917.372562</v>
       </c>
       <c r="E41" s="12">
-        <v>248.68829700000001</v>
+        <v>154.618281</v>
       </c>
       <c r="F41" s="13">
-        <v>26311.400989000002</v>
+        <v>8402.2872970000008</v>
       </c>
       <c r="G41" s="12">
-        <v>1087.37041</v>
+        <v>1061.246451</v>
       </c>
       <c r="H41" s="12">
-        <v>7334.6454670000003</v>
+        <v>6039.1824120000001</v>
       </c>
       <c r="I41" s="12">
-        <v>6696.7587530000001</v>
+        <v>4702.1062160000001</v>
       </c>
       <c r="J41" s="13">
-        <v>15118.77463</v>
+        <v>11802.535078999999</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C42" s="12">
-        <v>2389.9274340000002</v>
+        <v>1788.8508790000001</v>
       </c>
       <c r="D42" s="12">
-        <v>1997.2618580000001</v>
+        <v>1878.615693</v>
       </c>
       <c r="E42" s="12">
-        <v>7.0716480000000104</v>
+        <v>19.112134999999999</v>
       </c>
       <c r="F42" s="13">
-        <v>4394.2609400000001</v>
+        <v>3686.5787070000001</v>
       </c>
       <c r="G42" s="12">
-        <v>391.50130000000001</v>
+        <v>411.26283699999999</v>
       </c>
       <c r="H42" s="12">
-        <v>2175.4110409999998</v>
+        <v>1930.613699</v>
       </c>
       <c r="I42" s="12">
-        <v>1635.4603629999999</v>
+        <v>1073.9797129999999</v>
       </c>
       <c r="J42" s="13">
-        <v>4202.3727040000003</v>
+        <v>3415.8562489999999</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C43" s="19">
-        <v>5760.9442840000002</v>
+        <v>5804.7365259999997</v>
       </c>
       <c r="D43" s="19">
-        <v>16736.273195000002</v>
+        <v>17023.173149999999</v>
       </c>
       <c r="E43" s="19">
-        <v>10461.853783</v>
+        <v>9396.0560939999905</v>
       </c>
       <c r="F43" s="20">
-        <v>32959.071261999998</v>
+        <v>32223.965769999999</v>
       </c>
       <c r="G43" s="19">
-        <v>5257.4248699999998</v>
+        <v>5571.9780979999996</v>
       </c>
       <c r="H43" s="19">
-        <v>29236.784922999999</v>
+        <v>25280.604866999998</v>
       </c>
       <c r="I43" s="19">
-        <v>14640.936103</v>
+        <v>12301.074342</v>
       </c>
       <c r="J43" s="20">
-        <v>49135.145896000002</v>
+        <v>43153.657306999899</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C44" s="19">
-        <v>1574.6051910000001</v>
+        <v>1002.073716</v>
       </c>
       <c r="D44" s="19">
-        <v>8080.2446470000004</v>
+        <v>6648.3747000000003</v>
       </c>
       <c r="E44" s="19">
-        <v>6984.7648829999998</v>
+        <v>6046.4570560000002</v>
       </c>
       <c r="F44" s="20">
-        <v>16639.614721000002</v>
+        <v>13696.905472</v>
       </c>
       <c r="G44" s="19">
-        <v>2762.8633289999998</v>
+        <v>1787.282872</v>
       </c>
       <c r="H44" s="19">
-        <v>13719.078674</v>
+        <v>10351.143811</v>
       </c>
       <c r="I44" s="19">
-        <v>5184.9038229999996</v>
+        <v>4317.6795510000002</v>
       </c>
       <c r="J44" s="20">
-        <v>21666.845826000001</v>
+        <v>16456.106233999999</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C45" s="26">
-        <v>62603.882667999998</v>
+        <v>31600.796361000001</v>
       </c>
       <c r="D45" s="26">
-        <v>57300.221622999998</v>
+        <v>53162.529602000002</v>
       </c>
       <c r="E45" s="26">
-        <v>30286.376663999999</v>
+        <v>25644.141024</v>
       </c>
       <c r="F45" s="27">
-        <v>150190.48095500001</v>
+        <v>110407.46698700001</v>
       </c>
       <c r="G45" s="26">
-        <v>29019.630487999999</v>
+        <v>30334.021784</v>
       </c>
       <c r="H45" s="26">
-        <v>119286.88880299999</v>
+        <v>96634.961379999993</v>
       </c>
       <c r="I45" s="26">
-        <v>63646.624182</v>
+        <v>55023.410681000001</v>
       </c>
       <c r="J45" s="27">
-        <v>211953.143473</v>
+        <v>181992.39384500001</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C46" s="19">
-        <v>711.21489699999995</v>
+        <v>696.97695999999996</v>
       </c>
       <c r="D46" s="19">
-        <v>839.28322700000001</v>
+        <v>445.11260399999998</v>
       </c>
       <c r="E46" s="19">
-        <v>25.976796</v>
+        <v>51.445537999999999</v>
       </c>
       <c r="F46" s="20">
-        <v>1576.4749200000001</v>
+        <v>1193.5351020000001</v>
       </c>
       <c r="G46" s="19">
-        <v>141.85023200000001</v>
+        <v>102.881193</v>
       </c>
       <c r="H46" s="19">
-        <v>3165.573472</v>
+        <v>2780.4846419999999</v>
       </c>
       <c r="I46" s="19">
-        <v>1698.1247659999999</v>
+        <v>1344.9745620000001</v>
       </c>
       <c r="J46" s="20">
-        <v>5005.5484699999997</v>
+        <v>4228.3403969999999</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C47" s="19">
-        <v>913.46423000000095</v>
+        <v>786.65974000000006</v>
       </c>
       <c r="D47" s="19">
-        <v>4994.3673799999997</v>
+        <v>7319.4696670000003</v>
       </c>
       <c r="E47" s="19">
-        <v>79.112393000000097</v>
+        <v>45.617659000000003</v>
       </c>
       <c r="F47" s="20">
-        <v>5986.9440029999996</v>
+        <v>8151.7470659999999</v>
       </c>
       <c r="G47" s="19">
-        <v>97.577714999999998</v>
+        <v>118.285123</v>
       </c>
       <c r="H47" s="19">
-        <v>2278.8062329999998</v>
+        <v>2262.7405090000002</v>
       </c>
       <c r="I47" s="19">
-        <v>1547.7291290000001</v>
+        <v>1442.804871</v>
       </c>
       <c r="J47" s="20">
-        <v>3924.113077</v>
+        <v>3823.8305030000001</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C48" s="19">
-        <v>7.9051460000000002</v>
+        <v>5.968604</v>
       </c>
       <c r="D48" s="19">
-        <v>71.200916000000007</v>
+        <v>70.546074000000004</v>
       </c>
       <c r="E48" s="19">
-        <v>15.74939</v>
+        <v>14.015256000000001</v>
       </c>
       <c r="F48" s="20">
-        <v>94.855452</v>
+        <v>90.529933999999997</v>
       </c>
       <c r="G48" s="19">
-        <v>63.950584999999997</v>
+        <v>55.840741000000001</v>
       </c>
       <c r="H48" s="19">
-        <v>592.03489300000001</v>
+        <v>739.65860399999997</v>
       </c>
       <c r="I48" s="19">
-        <v>275.48826200000002</v>
+        <v>329.893956</v>
       </c>
       <c r="J48" s="20">
-        <v>931.47374000000002</v>
+        <v>1125.3933010000001</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C49" s="19">
-        <v>7961.6048920000003</v>
+        <v>6701.2574180000001</v>
       </c>
       <c r="D49" s="19">
-        <v>4767.1167869999999</v>
+        <v>3539.4005259999999</v>
       </c>
       <c r="E49" s="19">
-        <v>1002.744767</v>
+        <v>302.52539200000001</v>
       </c>
       <c r="F49" s="20">
-        <v>13731.466446</v>
+        <v>10543.183336</v>
       </c>
       <c r="G49" s="19">
-        <v>2018.6015299999999</v>
+        <v>1496.4087999999999</v>
       </c>
       <c r="H49" s="19">
-        <v>5853.0614249999999</v>
+        <v>5377.2093400000003</v>
       </c>
       <c r="I49" s="19">
-        <v>3115.3957190000001</v>
+        <v>3162.1450420000001</v>
       </c>
       <c r="J49" s="20">
-        <v>10987.058674</v>
+        <v>10035.763182000001</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C50" s="19">
-        <v>109.47299099999999</v>
+        <v>58.012839</v>
       </c>
       <c r="D50" s="19">
-        <v>63.833489999999998</v>
+        <v>283.32981999999998</v>
       </c>
       <c r="E50" s="19">
-        <v>5.8937379999999999</v>
+        <v>16.092773000000001</v>
       </c>
       <c r="F50" s="20">
-        <v>179.200219</v>
+        <v>357.43543199999999</v>
       </c>
       <c r="G50" s="19">
-        <v>81.576848999999996</v>
+        <v>84.445370999999994</v>
       </c>
       <c r="H50" s="19">
-        <v>1179.4383700000001</v>
+        <v>1174.3970879999999</v>
       </c>
       <c r="I50" s="19">
-        <v>351.15752700000002</v>
+        <v>430.36222299999997</v>
       </c>
       <c r="J50" s="20">
-        <v>1612.172746</v>
+        <v>1689.204682</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C51" s="15">
-        <v>7893.7250649999996</v>
+        <v>5130.6917789999998</v>
       </c>
       <c r="D51" s="15">
-        <v>13540.980879999999</v>
+        <v>7759.4717659999997</v>
       </c>
       <c r="E51" s="15">
-        <v>405.588415</v>
+        <v>265.94287500000002</v>
       </c>
       <c r="F51" s="16">
-        <v>21840.29436</v>
+        <v>13156.10642</v>
       </c>
       <c r="G51" s="15">
-        <v>1974.390461</v>
+        <v>840.20876799999996</v>
       </c>
       <c r="H51" s="15">
-        <v>10621.176133000001</v>
+        <v>9181.9452419999998</v>
       </c>
       <c r="I51" s="15">
-        <v>5925.3280279999999</v>
+        <v>6048.9586799999997</v>
       </c>
       <c r="J51" s="16">
-        <v>18520.894622</v>
+        <v>16071.11269</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C52" s="19">
-        <v>3026.4433140000001</v>
+        <v>3223.3230050000002</v>
       </c>
       <c r="D52" s="19">
-        <v>3021.166733</v>
+        <v>8343.3942659999993</v>
       </c>
       <c r="E52" s="19">
-        <v>38.265847000000001</v>
+        <v>46.054808000000001</v>
       </c>
       <c r="F52" s="20">
-        <v>6085.8758939999998</v>
+        <v>11612.772079</v>
       </c>
       <c r="G52" s="19">
-        <v>205.41671500000001</v>
+        <v>194.825377</v>
       </c>
       <c r="H52" s="19">
-        <v>2261.4526340000002</v>
+        <v>2457.697893</v>
       </c>
       <c r="I52" s="19">
-        <v>1940.0423290000001</v>
+        <v>2029.653352</v>
       </c>
       <c r="J52" s="20">
-        <v>4406.9116780000004</v>
+        <v>4682.176622</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C53" s="19">
-        <v>137.96562499999999</v>
+        <v>128.17790400000001</v>
       </c>
       <c r="D53" s="19">
-        <v>103.825558</v>
+        <v>11.786377</v>
       </c>
       <c r="E53" s="19">
-        <v>0.69027799999999995</v>
+        <v>0.544234</v>
       </c>
       <c r="F53" s="20">
-        <v>242.481461</v>
+        <v>140.50851499999999</v>
       </c>
       <c r="G53" s="19">
-        <v>7.7014379999999996</v>
+        <v>10.014654999999999</v>
       </c>
       <c r="H53" s="19">
-        <v>253.40483699999999</v>
+        <v>247.61761999999999</v>
       </c>
       <c r="I53" s="19">
-        <v>69.763143999999997</v>
+        <v>68.462710000000001</v>
       </c>
       <c r="J53" s="20">
-        <v>330.86941899999999</v>
+        <v>326.09498500000001</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C54" s="19">
-        <v>516.75092700000005</v>
+        <v>510.46328099999999</v>
       </c>
       <c r="D54" s="19">
-        <v>194.85649799999999</v>
+        <v>261.49126200000001</v>
       </c>
       <c r="E54" s="19">
-        <v>1114.5278989999999</v>
+        <v>165.86211399999999</v>
       </c>
       <c r="F54" s="20">
-        <v>1826.1353240000001</v>
+        <v>937.81665699999996</v>
       </c>
       <c r="G54" s="19">
-        <v>37.247509999999998</v>
+        <v>48.206080999999998</v>
       </c>
       <c r="H54" s="19">
-        <v>2400.4324839999999</v>
+        <v>2775.0888329999998</v>
       </c>
       <c r="I54" s="19">
-        <v>7165.9994180000003</v>
+        <v>6731.7850079999998</v>
       </c>
       <c r="J54" s="20">
-        <v>9603.6794119999995</v>
+        <v>9555.0799220000008</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C55" s="19">
-        <v>254.33302699999999</v>
+        <v>208.07313500000001</v>
       </c>
       <c r="D55" s="19">
-        <v>4574.3161250000003</v>
+        <v>4831.6112869999997</v>
       </c>
       <c r="E55" s="19">
-        <v>40.105280999999998</v>
+        <v>16.187777000000001</v>
       </c>
       <c r="F55" s="20">
-        <v>4868.7544330000001</v>
+        <v>5055.8721990000004</v>
       </c>
       <c r="G55" s="19">
-        <v>183.709114</v>
+        <v>195.49814900000001</v>
       </c>
       <c r="H55" s="19">
-        <v>2597.3798649999999</v>
+        <v>2278.018204</v>
       </c>
       <c r="I55" s="19">
-        <v>1328.5734950000001</v>
+        <v>1390.5155139999999</v>
       </c>
       <c r="J55" s="20">
-        <v>4109.6624739999997</v>
+        <v>3864.0318670000001</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C56" s="19">
-        <v>241.890818</v>
+        <v>355.61396500000001</v>
       </c>
       <c r="D56" s="19">
-        <v>555.122749</v>
+        <v>2214.7008729999998</v>
       </c>
       <c r="E56" s="19">
-        <v>56.735404000000003</v>
+        <v>46.100628999999998</v>
       </c>
       <c r="F56" s="20">
-        <v>853.74897099999998</v>
+        <v>2616.4154669999998</v>
       </c>
       <c r="G56" s="19">
-        <v>76.259646000000103</v>
+        <v>206.06614400000001</v>
       </c>
       <c r="H56" s="19">
-        <v>874.47231100000101</v>
+        <v>1477.5966969999999</v>
       </c>
       <c r="I56" s="19">
-        <v>595.77309100000002</v>
+        <v>1073.8974900000001</v>
       </c>
       <c r="J56" s="20">
-        <v>1546.505048</v>
+        <v>2757.5603310000001</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C57" s="12">
-        <v>50761.965856000003</v>
+        <v>33671.102237999999</v>
       </c>
       <c r="D57" s="12">
-        <v>4137.6991040000003</v>
+        <v>1807.358641</v>
       </c>
       <c r="E57" s="12">
-        <v>8867.3896650000006</v>
+        <v>6920.8050210000101</v>
       </c>
       <c r="F57" s="13">
-        <v>63767.054624999997</v>
+        <v>42399.265899999999</v>
       </c>
       <c r="G57" s="12">
-        <v>2422.5316039999998</v>
+        <v>3450.386716</v>
       </c>
       <c r="H57" s="12">
-        <v>32993.803203000003</v>
+        <v>30005.241896</v>
       </c>
       <c r="I57" s="12">
-        <v>16946.580435</v>
+        <v>18480.376722000001</v>
       </c>
       <c r="J57" s="13">
-        <v>52362.915241999901</v>
+        <v>51936.005334000001</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C58" s="19">
-        <v>1028.0598199999999</v>
+        <v>887.68772000000001</v>
       </c>
       <c r="D58" s="19">
-        <v>3005.4478909999998</v>
+        <v>2782.3581049999998</v>
       </c>
       <c r="E58" s="19">
-        <v>330.31352600000002</v>
+        <v>388.471476</v>
       </c>
       <c r="F58" s="20">
-        <v>4363.8212370000001</v>
+        <v>4058.5173009999999</v>
       </c>
       <c r="G58" s="19">
-        <v>1198.33617</v>
+        <v>1255.3598890000001</v>
       </c>
       <c r="H58" s="19">
-        <v>6898.2930800000004</v>
+        <v>6428.1307890000098</v>
       </c>
       <c r="I58" s="19">
-        <v>3163.6874769999999</v>
+        <v>3247.7098380000002</v>
       </c>
       <c r="J58" s="20">
-        <v>11260.316726999999</v>
+        <v>10931.200516000001</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C59" s="19">
-        <v>594.70973600000002</v>
+        <v>467.83916799999997</v>
       </c>
       <c r="D59" s="19">
-        <v>72.016531999999998</v>
+        <v>46.709488</v>
       </c>
       <c r="E59" s="19">
-        <v>31.178252000000001</v>
+        <v>18.594398000000002</v>
       </c>
       <c r="F59" s="20">
-        <v>697.90452000000005</v>
+        <v>533.14305400000001</v>
       </c>
       <c r="G59" s="19">
-        <v>27.589770999999999</v>
+        <v>33.456885999999997</v>
       </c>
       <c r="H59" s="19">
-        <v>753.51165200000003</v>
+        <v>713.16818000000001</v>
       </c>
       <c r="I59" s="19">
-        <v>375.73160899999999</v>
+        <v>412.88298600000002</v>
       </c>
       <c r="J59" s="20">
-        <v>1156.833032</v>
+        <v>1159.5080519999999</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C60" s="15">
-        <v>722.92489599999999</v>
+        <v>540.37836500000003</v>
       </c>
       <c r="D60" s="15">
-        <v>849.69547699999998</v>
+        <v>769.11515199999997</v>
       </c>
       <c r="E60" s="15">
-        <v>402.55922299999997</v>
+        <v>349.80512599999997</v>
       </c>
       <c r="F60" s="16">
-        <v>1975.1795959999999</v>
+        <v>1659.2986430000001</v>
       </c>
       <c r="G60" s="15">
-        <v>588.50874099999999</v>
+        <v>836.25074800000004</v>
       </c>
       <c r="H60" s="15">
-        <v>7709.62781</v>
+        <v>6394.937997</v>
       </c>
       <c r="I60" s="15">
-        <v>2085.0135049999999</v>
+        <v>2707.3801760000001</v>
       </c>
       <c r="J60" s="16">
-        <v>10383.150056</v>
+        <v>9938.5689209999891</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C61" s="26">
-        <v>74882.431240000005</v>
+        <v>53372.226121</v>
       </c>
       <c r="D61" s="26">
-        <v>40790.929346999998</v>
+        <v>40485.855907999998</v>
       </c>
       <c r="E61" s="26">
-        <v>12416.830873999999</v>
+        <v>8648.0650760000008</v>
       </c>
       <c r="F61" s="27">
-        <v>128090.19146099999</v>
+        <v>102506.147105</v>
       </c>
       <c r="G61" s="26">
-        <v>9125.2480809999997</v>
+        <v>8928.1346410000006</v>
       </c>
       <c r="H61" s="26">
-        <v>80432.468401999999</v>
+        <v>74293.933533999996</v>
       </c>
       <c r="I61" s="26">
-        <v>46584.387933999998</v>
+        <v>48901.80313</v>
       </c>
       <c r="J61" s="27">
-        <v>136142.104417</v>
+        <v>132123.87130500001</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C62" s="32">
-        <v>244277.39456799999</v>
+        <v>169685.19620199999</v>
       </c>
       <c r="D62" s="32">
-        <v>204961.19854899999</v>
+        <v>210774.607755</v>
       </c>
       <c r="E62" s="32">
-        <v>76248.059252000006</v>
+        <v>64733.457348000004</v>
       </c>
       <c r="F62" s="33">
-        <v>525486.65236900002</v>
+        <v>445193.26130499999</v>
       </c>
       <c r="G62" s="32">
-        <v>62955.747092999998</v>
+        <v>61292.704788000003</v>
       </c>
       <c r="H62" s="32">
-        <v>330210.27823200001</v>
+        <v>295316.20315000002</v>
       </c>
       <c r="I62" s="32">
-        <v>193614.02058000001</v>
+        <v>180598.30840899999</v>
       </c>
       <c r="J62" s="33">
-        <v>586780.04590499995</v>
+        <v>537207.21634699998</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C63" s="32">
-        <v>2056730.561278</v>
+        <v>1739502.30908</v>
       </c>
       <c r="D63" s="32">
-        <v>8695800.4844429996</v>
+        <v>8100105.8435770096</v>
       </c>
       <c r="E63" s="32">
-        <v>6353402.9925610004</v>
+        <v>5964168.7675120002</v>
       </c>
       <c r="F63" s="33">
-        <v>17105934.038282</v>
+        <v>15803776.920169</v>
       </c>
       <c r="G63" s="32">
-        <v>2191301.4251279999</v>
+        <v>1807914.238042</v>
       </c>
       <c r="H63" s="32">
-        <v>8385688.2524760002</v>
+        <v>7854328.5954980003</v>
       </c>
       <c r="I63" s="32">
-        <v>6067670.0226090001</v>
+        <v>5697662.5550640002</v>
       </c>
       <c r="J63" s="33">
-        <v>16644659.700213</v>
+        <v>15359905.388604</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C64" s="36">
-        <v>303749.66824299999</v>
+        <v>277063.49287199997</v>
       </c>
       <c r="D64" s="36">
-        <v>455299.07623200002</v>
+        <v>419072.98489199998</v>
       </c>
       <c r="E64" s="36">
-        <v>316287.39714000002</v>
+        <v>270206.21692199999</v>
       </c>
       <c r="F64" s="37">
-        <v>1075336.1416150001</v>
+        <v>966342.694686</v>
       </c>
       <c r="G64" s="36">
-        <v>72241.288679000005</v>
+        <v>62637.266597000002</v>
       </c>
       <c r="H64" s="36">
-        <v>622919.32678300003</v>
+        <v>542009.30327399995</v>
       </c>
       <c r="I64" s="36">
-        <v>341744.12252099998</v>
+        <v>290870.18041500001</v>
       </c>
       <c r="J64" s="37">
-        <v>1036904.737983</v>
+        <v>895516.75028599997</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C65" s="39">
-        <v>295850.98865800002</v>
+        <v>237567.404351</v>
       </c>
       <c r="D65" s="39">
-        <v>2049524.6406439999</v>
+        <v>2035051.2094119999</v>
       </c>
       <c r="E65" s="39">
-        <v>1923348.7643639999</v>
+        <v>1978125.8098929999</v>
       </c>
       <c r="F65" s="40">
-        <v>4268724.3936660103</v>
+        <v>4250744.4236559998</v>
       </c>
       <c r="G65" s="39">
-        <v>789228.83489199996</v>
+        <v>693575.98722000001</v>
       </c>
       <c r="H65" s="39">
-        <v>1830628.4743880001</v>
+        <v>1748564.7521220001</v>
       </c>
       <c r="I65" s="39">
-        <v>800516.35684499994</v>
+        <v>737472.41204700002</v>
       </c>
       <c r="J65" s="40">
-        <v>3420373.666125</v>
+        <v>3179613.151389</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C66" s="42">
-        <v>2301007.955846</v>
+        <v>1909187.5052819999</v>
       </c>
       <c r="D66" s="42">
-        <v>8900761.6829920001</v>
+        <v>8310880.4513320103</v>
       </c>
       <c r="E66" s="42">
-        <v>6429651.0518129999</v>
+        <v>6028902.2248600004</v>
       </c>
       <c r="F66" s="43">
-        <v>17631420.690651</v>
+        <v>16248970.181474</v>
       </c>
       <c r="G66" s="42">
-        <v>2254257.1722209998</v>
+        <v>1869206.9428300001</v>
       </c>
       <c r="H66" s="42">
-        <v>8715898.5307080001</v>
+        <v>8149644.7986479998</v>
       </c>
       <c r="I66" s="42">
-        <v>6261284.0431890003</v>
+        <v>5878260.863473</v>
       </c>
       <c r="J66" s="43">
-        <v>17231439.746118002</v>
+        <v>15897112.604951</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C67" s="39">
-        <v>48730.662145000002</v>
+        <v>28415.003110000001</v>
       </c>
       <c r="D67" s="39">
-        <v>62485.315928000004</v>
+        <v>74123.733598999999</v>
       </c>
       <c r="E67" s="39">
-        <v>20683.973955000001</v>
+        <v>18098.477778</v>
       </c>
       <c r="F67" s="40">
-        <v>131899.952028</v>
+        <v>120637.214487</v>
       </c>
       <c r="G67" s="39">
-        <v>24924.775055999999</v>
+        <v>26449.150420999998</v>
       </c>
       <c r="H67" s="39">
-        <v>116350.74786</v>
+        <v>106328.29969099999</v>
       </c>
       <c r="I67" s="39">
-        <v>65314.509714</v>
+        <v>63095.437569000002</v>
       </c>
       <c r="J67" s="40">
-        <v>206590.03263</v>
+        <v>195872.88768099999</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C68" s="39">
-        <v>120708.104528</v>
+        <v>78485.515948999993</v>
       </c>
       <c r="D68" s="39">
-        <v>91613.112424999999</v>
+        <v>90938.19025</v>
       </c>
       <c r="E68" s="39">
-        <v>36750.014146000001</v>
+        <v>30402.717815</v>
       </c>
       <c r="F68" s="40">
-        <v>249071.231099</v>
+        <v>199826.42401399999</v>
       </c>
       <c r="G68" s="39">
-        <v>35232.114099999999</v>
+        <v>36328.92931</v>
       </c>
       <c r="H68" s="39">
-        <v>184126.95483100001</v>
+        <v>160897.84445199999</v>
       </c>
       <c r="I68" s="39">
-        <v>96443.001944999996</v>
+        <v>95038.046031999998</v>
       </c>
       <c r="J68" s="40">
-        <v>315802.07087599998</v>
+        <v>292264.81979400001</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C69" s="39">
-        <v>7210.8909030000004</v>
+        <v>7102.3625190000002</v>
       </c>
       <c r="D69" s="39">
-        <v>7454.9863450000003</v>
+        <v>11002.894566999999</v>
       </c>
       <c r="E69" s="39">
-        <v>2199.6357560000001</v>
+        <v>2174.3840070000001</v>
       </c>
       <c r="F69" s="40">
-        <v>16865.513004</v>
+        <v>20279.641092999998</v>
       </c>
       <c r="G69" s="39">
-        <v>2133.6082219999998</v>
+        <v>2347.1921510000002</v>
       </c>
       <c r="H69" s="39">
-        <v>22626.658310999999</v>
+        <v>25450.011298000001</v>
       </c>
       <c r="I69" s="39">
-        <v>13476.845810999999</v>
+        <v>14011.027599999999</v>
       </c>
       <c r="J69" s="40">
-        <v>38237.112344000001</v>
+        <v>41808.231049000002</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C70" s="39">
-        <v>52865.237371000003</v>
+        <v>34556.926957000003</v>
       </c>
       <c r="D70" s="39">
-        <v>14340.188115999999</v>
+        <v>23564.646227000001</v>
       </c>
       <c r="E70" s="39">
-        <v>3884.563498</v>
+        <v>3167.19884</v>
       </c>
       <c r="F70" s="40">
-        <v>71089.988985000004</v>
+        <v>61288.772023999998</v>
       </c>
       <c r="G70" s="39">
-        <v>2871.6319840000001</v>
+        <v>3118.7660599999999</v>
       </c>
       <c r="H70" s="39">
-        <v>19371.379291000001</v>
+        <v>18063.399577</v>
       </c>
       <c r="I70" s="39">
-        <v>11853.532619</v>
+        <v>11533.599819999999</v>
       </c>
       <c r="J70" s="40">
-        <v>34096.543894000002</v>
+        <v>32715.765457000001</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C71" s="39">
-        <v>74882.431240000005</v>
+        <v>53372.226121</v>
       </c>
       <c r="D71" s="39">
-        <v>40790.929346999998</v>
+        <v>40485.855907999998</v>
       </c>
       <c r="E71" s="39">
-        <v>12416.830873999999</v>
+        <v>8648.0650760000099</v>
       </c>
       <c r="F71" s="40">
-        <v>128090.19146099999</v>
+        <v>102506.147105</v>
       </c>
       <c r="G71" s="39">
-        <v>9125.2480809999997</v>
+        <v>8928.1346410000097</v>
       </c>
       <c r="H71" s="39">
-        <v>80432.468401999999</v>
+        <v>74293.933533999996</v>
       </c>
       <c r="I71" s="39">
-        <v>46584.387933999998</v>
+        <v>48901.80313</v>
       </c>
       <c r="J71" s="40">
-        <v>136142.104417</v>
+        <v>132123.87130500001</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C72" s="39">
-        <v>9727.6814639999993</v>
+        <v>9083.3108780000093</v>
       </c>
       <c r="D72" s="39">
-        <v>6283.9574430000002</v>
+        <v>10067.078821999999</v>
       </c>
       <c r="E72" s="39">
-        <v>2628.859457</v>
+        <v>2662.0877399999999</v>
       </c>
       <c r="F72" s="40">
-        <v>18640.498363999999</v>
+        <v>21812.477439999999</v>
       </c>
       <c r="G72" s="39">
-        <v>2697.2759890000002</v>
+        <v>3881.4626560000002</v>
       </c>
       <c r="H72" s="39">
-        <v>27343.208884</v>
+        <v>32877.554913</v>
       </c>
       <c r="I72" s="39">
-        <v>18400.85296</v>
+        <v>20176.194241000001</v>
       </c>
       <c r="J72" s="40">
-        <v>48441.337832999998</v>
+        <v>56935.211810000001</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C73" s="39">
-        <v>76161.751719000007</v>
+        <v>61816.070483000003</v>
       </c>
       <c r="D73" s="39">
-        <v>93568.079366000005</v>
+        <v>101323.14762</v>
       </c>
       <c r="E73" s="39">
-        <v>28911.931762</v>
+        <v>26041.112058999999</v>
       </c>
       <c r="F73" s="40">
-        <v>198641.76284700001</v>
+        <v>189180.330162</v>
       </c>
       <c r="G73" s="39">
-        <v>20450.626517000001</v>
+        <v>16083.794717000001</v>
       </c>
       <c r="H73" s="39">
-        <v>93639.900792999993</v>
+        <v>83365.231989000007</v>
       </c>
       <c r="I73" s="39">
-        <v>58859.823340000003</v>
+        <v>50112.790131000002</v>
       </c>
       <c r="J73" s="40">
-        <v>172950.35065000001</v>
+        <v>149561.81683699999</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C74" s="39">
-        <v>53756.956665999998</v>
+        <v>24736.380945000001</v>
       </c>
       <c r="D74" s="39">
-        <v>37123.572633999996</v>
+        <v>32721.108070999999</v>
       </c>
       <c r="E74" s="39">
-        <v>22613.854017000001</v>
+        <v>19371.661072999999</v>
       </c>
       <c r="F74" s="40">
-        <v>113494.383317</v>
+        <v>76829.150089000002</v>
       </c>
       <c r="G74" s="39">
-        <v>13283.934262999999</v>
+        <v>13274.260018000001</v>
       </c>
       <c r="H74" s="39">
-        <v>74961.258726</v>
+        <v>60495.687876000004</v>
       </c>
       <c r="I74" s="39">
-        <v>41410.892507999997</v>
+        <v>32384.698924</v>
       </c>
       <c r="J74" s="40">
-        <v>129656.08549699999</v>
+        <v>106154.64681799999</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C75" s="42">
-        <v>36656.943434000001</v>
+        <v>23719.740322000001</v>
       </c>
       <c r="D75" s="42">
-        <v>3347.5862900000002</v>
+        <v>2939.6074709999998</v>
       </c>
       <c r="E75" s="42">
-        <v>3498.2273879999998</v>
+        <v>2592.7345690000002</v>
       </c>
       <c r="F75" s="43">
-        <v>43502.757111999999</v>
+        <v>29252.082362000001</v>
       </c>
       <c r="G75" s="42">
-        <v>2809.0572750000001</v>
+        <v>2423.2453019999998</v>
       </c>
       <c r="H75" s="42">
-        <v>14275.691395</v>
+        <v>12573.574911</v>
       </c>
       <c r="I75" s="42">
-        <v>6493.1724299999996</v>
+        <v>6041.220147</v>
       </c>
       <c r="J75" s="43">
-        <v>23577.9211</v>
+        <v>21038.040359999999</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C76" s="39">
-        <v>119850.1277</v>
+        <v>104121.550898</v>
       </c>
       <c r="D76" s="39">
-        <v>820465.86357599997</v>
+        <v>822135.37432499998</v>
       </c>
       <c r="E76" s="39">
-        <v>496985.383722</v>
+        <v>482174.90203900001</v>
       </c>
       <c r="F76" s="40">
-        <v>1437301.374998</v>
+        <v>1408431.8272619999</v>
       </c>
       <c r="G76" s="39">
-        <v>149852.046367</v>
+        <v>128606.739103</v>
       </c>
       <c r="H76" s="39">
-        <v>859622.03198299999</v>
+        <v>820196.22185500001</v>
       </c>
       <c r="I76" s="39">
-        <v>350006.21611099999</v>
+        <v>319382.85772099998</v>
       </c>
       <c r="J76" s="40">
-        <v>1359480.294461</v>
+        <v>1268185.818679</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C77" s="39">
-        <v>235113.86963</v>
+        <v>215338.533807</v>
       </c>
       <c r="D77" s="39">
-        <v>232166.03083</v>
+        <v>213577.60780299999</v>
       </c>
       <c r="E77" s="39">
-        <v>54219.890105999999</v>
+        <v>41119.434619</v>
       </c>
       <c r="F77" s="40">
-        <v>521499.79056599998</v>
+        <v>470035.576229</v>
       </c>
       <c r="G77" s="39">
-        <v>37922.322988</v>
+        <v>30416.617998999998</v>
       </c>
       <c r="H77" s="39">
-        <v>244481.64546</v>
+        <v>218010.437645</v>
       </c>
       <c r="I77" s="39">
-        <v>162695.07008</v>
+        <v>140005.58118400001</v>
       </c>
       <c r="J77" s="40">
-        <v>445099.038528</v>
+        <v>388432.63682800002</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C78" s="39">
-        <v>269178.68172400002</v>
+        <v>258862.38183999999</v>
       </c>
       <c r="D78" s="39">
-        <v>2976696.779207</v>
+        <v>2718873.7933299998</v>
       </c>
       <c r="E78" s="39">
-        <v>2274685.9628499998</v>
+        <v>2107207.6752510001</v>
       </c>
       <c r="F78" s="40">
-        <v>5520561.4237810001</v>
+        <v>5084943.8504210003</v>
       </c>
       <c r="G78" s="39">
-        <v>598069.48378799995</v>
+        <v>477956.47022399999</v>
       </c>
       <c r="H78" s="39">
-        <v>2697534.350017</v>
+        <v>2461465.3645810001</v>
       </c>
       <c r="I78" s="39">
-        <v>2064634.2816999999</v>
+        <v>1953481.9876570001</v>
       </c>
       <c r="J78" s="40">
-        <v>5360238.1155049996</v>
+        <v>4892903.822462</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C79" s="42">
-        <v>972906.96122900001</v>
+        <v>893150.75755600003</v>
       </c>
       <c r="D79" s="42">
-        <v>5619225.0952540003</v>
+        <v>5126360.284922</v>
       </c>
       <c r="E79" s="42">
-        <v>4029826.6642550002</v>
+        <v>3644187.7404939998</v>
       </c>
       <c r="F79" s="43">
-        <v>10621958.720737999</v>
+        <v>9663698.7829720005</v>
       </c>
       <c r="G79" s="42">
-        <v>1222279.2526690001</v>
+        <v>966014.87138000003</v>
       </c>
       <c r="H79" s="42">
-        <v>5518984.5289150001</v>
+        <v>5137447.8941909997</v>
       </c>
       <c r="I79" s="42">
-        <v>4524179.2036229996</v>
+        <v>4280757.3446420003</v>
       </c>
       <c r="J79" s="43">
-        <v>11265442.985207001</v>
+        <v>10384220.110213</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C80" s="39">
-        <v>144605.78388599999</v>
+        <v>81867.593173000001</v>
       </c>
       <c r="D80" s="39">
-        <v>21745.632279000001</v>
+        <v>15155.348481999999</v>
       </c>
       <c r="E80" s="39">
-        <v>17276.856583000001</v>
+        <v>13614.616207999999</v>
       </c>
       <c r="F80" s="40">
-        <v>183628.27274799999</v>
+        <v>110637.55786299999</v>
       </c>
       <c r="G80" s="39">
-        <v>8958.3056909999996</v>
+        <v>10333.336443</v>
       </c>
       <c r="H80" s="39">
-        <v>74465.158872</v>
+        <v>62819.268801999999</v>
       </c>
       <c r="I80" s="39">
-        <v>44390.019244000003</v>
+        <v>39863.555747999999</v>
       </c>
       <c r="J80" s="40">
-        <v>127813.483807</v>
+        <v>113016.160993</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C81" s="39">
-        <v>687039.80136200006</v>
+        <v>464050.91519799997</v>
       </c>
       <c r="D81" s="39">
-        <v>466801.43274999998</v>
+        <v>432719.56516300002</v>
       </c>
       <c r="E81" s="39">
-        <v>180442.68345499999</v>
+        <v>142440.763087</v>
       </c>
       <c r="F81" s="40">
-        <v>1334283.917567</v>
+        <v>1039211.2434480001</v>
       </c>
       <c r="G81" s="39">
-        <v>68760.618432000003</v>
+        <v>62239.400871999998</v>
       </c>
       <c r="H81" s="39">
-        <v>465243.79621499998</v>
+        <v>424996.81750100001</v>
       </c>
       <c r="I81" s="39">
-        <v>407285.569762</v>
+        <v>370715.134081</v>
       </c>
       <c r="J81" s="40">
-        <v>941289.98440900003</v>
+        <v>857951.35245400004</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C82" s="39">
-        <v>99671.6106820001</v>
+        <v>87817.603029000005</v>
       </c>
       <c r="D82" s="39">
-        <v>183215.56627000001</v>
+        <v>195619.259273</v>
       </c>
       <c r="E82" s="39">
-        <v>58971.202668999998</v>
+        <v>51118.841139999997</v>
       </c>
       <c r="F82" s="40">
-        <v>341858.37962099997</v>
+        <v>334555.70344200003</v>
       </c>
       <c r="G82" s="39">
-        <v>53997.441401999997</v>
+        <v>50959.368345000003</v>
       </c>
       <c r="H82" s="39">
-        <v>255745.11936000001</v>
+        <v>232496.93434800001</v>
       </c>
       <c r="I82" s="39">
-        <v>149224.00133599999</v>
+        <v>140734.75266100001</v>
       </c>
       <c r="J82" s="40">
-        <v>458966.56209800002</v>
+        <v>424191.05535400001</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C83" s="42">
-        <v>1369690.7599160001</v>
+        <v>1275451.3938819999</v>
       </c>
       <c r="D83" s="42">
-        <v>8228999.0516929999</v>
+        <v>7667386.2784140101</v>
       </c>
       <c r="E83" s="42">
-        <v>6172960.3091059998</v>
+        <v>5821728.0044250004</v>
       </c>
       <c r="F83" s="43">
-        <v>15771650.120715</v>
+        <v>14764565.676720999</v>
       </c>
       <c r="G83" s="42">
-        <v>2122540.806696</v>
+        <v>1745674.83717</v>
       </c>
       <c r="H83" s="42">
-        <v>7920444.4562609997</v>
+        <v>7429331.7779970001</v>
       </c>
       <c r="I83" s="42">
-        <v>5660384.4528470002</v>
+        <v>5326947.4209829997</v>
       </c>
       <c r="J83" s="43">
-        <v>15703369.715803999</v>
+        <v>14501954.036149999</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C84" s="39">
-        <v>21764.011447000001</v>
+        <v>19886.169270999999</v>
       </c>
       <c r="D84" s="39">
-        <v>29985.351503999998</v>
+        <v>53673.152497000003</v>
       </c>
       <c r="E84" s="39">
-        <v>4198.7857940000004</v>
+        <v>3105.246611</v>
       </c>
       <c r="F84" s="40">
-        <v>55948.148744999999</v>
+        <v>76664.568379000004</v>
       </c>
       <c r="G84" s="39">
-        <v>5422.1764519999997</v>
+        <v>7134.287808</v>
       </c>
       <c r="H84" s="39">
-        <v>51713.623852999997</v>
+        <v>56259.095867999997</v>
       </c>
       <c r="I84" s="39">
-        <v>35103.518062000003</v>
+        <v>36923.362772</v>
       </c>
       <c r="J84" s="40">
-        <v>92239.318367</v>
+        <v>100316.74644800001</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C85" s="39">
-        <v>2737.0625129999999</v>
+        <v>2656.4930669999999</v>
       </c>
       <c r="D85" s="39">
-        <v>1638.620212</v>
+        <v>1200.372241</v>
       </c>
       <c r="E85" s="39">
-        <v>251.441509</v>
+        <v>174.920875</v>
       </c>
       <c r="F85" s="40">
-        <v>4627.1242339999999</v>
+        <v>4031.7861830000002</v>
       </c>
       <c r="G85" s="39">
-        <v>3240.499206</v>
+        <v>2547.68887</v>
       </c>
       <c r="H85" s="39">
-        <v>15900.561349</v>
+        <v>12878.592108000001</v>
       </c>
       <c r="I85" s="39">
-        <v>7862.6496150000103</v>
+        <v>6959.3082109999996</v>
       </c>
       <c r="J85" s="40">
-        <v>27003.710169999998</v>
+        <v>22385.589188999998</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C86" s="39">
-        <v>154657.43872400001</v>
+        <v>105545.641443</v>
       </c>
       <c r="D86" s="39">
-        <v>106199.983487</v>
+        <v>92044.640421999997</v>
       </c>
       <c r="E86" s="39">
-        <v>47017.463414999998</v>
+        <v>39225.468202999997</v>
       </c>
       <c r="F86" s="40">
-        <v>307874.885626</v>
+        <v>236815.75006799999</v>
       </c>
       <c r="G86" s="39">
-        <v>41018.435293000002</v>
+        <v>41570.133397999998</v>
       </c>
       <c r="H86" s="39">
-        <v>213331.71480300001</v>
+        <v>184146.86147599999</v>
       </c>
       <c r="I86" s="39">
-        <v>111322.08751700001</v>
+        <v>105972.258122</v>
       </c>
       <c r="J86" s="40">
-        <v>365672.23761299998</v>
+        <v>331689.252996</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C87" s="39">
-        <v>166493.08070300001</v>
+        <v>143904.99797600001</v>
       </c>
       <c r="D87" s="39">
-        <v>550518.88273900002</v>
+        <v>545868.37324800005</v>
       </c>
       <c r="E87" s="39">
-        <v>449870.72215599997</v>
+        <v>413334.26146200002</v>
       </c>
       <c r="F87" s="40">
-        <v>1166882.685598</v>
+        <v>1103107.6326860001</v>
       </c>
       <c r="G87" s="39">
-        <v>251655.41080099999</v>
+        <v>202708.60662999999</v>
       </c>
       <c r="H87" s="39">
-        <v>802726.442668</v>
+        <v>714792.49291899998</v>
       </c>
       <c r="I87" s="39">
-        <v>353787.363059</v>
+        <v>313987.65856399998</v>
       </c>
       <c r="J87" s="40">
-        <v>1408169.2165280001</v>
+        <v>1231488.7581130001</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C88" s="39">
-        <v>67835.087786999997</v>
+        <v>44236.663941999999</v>
       </c>
       <c r="D88" s="39">
-        <v>68052.943996999995</v>
+        <v>64421.565536000002</v>
       </c>
       <c r="E88" s="39">
-        <v>24824.138126000002</v>
+        <v>21887.506458</v>
       </c>
       <c r="F88" s="40">
-        <v>160712.16991</v>
+        <v>130545.735936</v>
       </c>
       <c r="G88" s="39">
-        <v>16462.10555</v>
+        <v>12551.991910999999</v>
       </c>
       <c r="H88" s="39">
-        <v>64424.162708000003</v>
+        <v>54216.376251000002</v>
       </c>
       <c r="I88" s="39">
-        <v>46438.929644999997</v>
+        <v>36872.762143</v>
       </c>
       <c r="J88" s="40">
-        <v>127325.19790299999</v>
+        <v>103641.130305</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C89" s="39">
-        <v>683072.81625699997</v>
+        <v>557745.49614299997</v>
       </c>
       <c r="D89" s="39">
-        <v>2344450.2045979998</v>
+        <v>2275728.271441</v>
       </c>
       <c r="E89" s="39">
-        <v>1971280.0710849999</v>
+        <v>1999567.7818489999</v>
       </c>
       <c r="F89" s="40">
-        <v>4998803.09194001</v>
+        <v>4833041.5494330004</v>
       </c>
       <c r="G89" s="39">
-        <v>689068.40869199997</v>
+        <v>624657.40668100002</v>
       </c>
       <c r="H89" s="39">
-        <v>2004348.826347</v>
+        <v>1928644.9094189999</v>
       </c>
       <c r="I89" s="39">
-        <v>1032864.662578</v>
+        <v>969414.45789200102</v>
       </c>
       <c r="J89" s="40">
-        <v>3726281.8976170002</v>
+        <v>3522716.7739920001</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C90" s="42">
-        <v>1191674.4310959999</v>
+        <v>1032074.388012</v>
       </c>
       <c r="D90" s="42">
-        <v>5797959.1314890003</v>
+        <v>5276834.466093</v>
       </c>
       <c r="E90" s="42">
-        <v>3932143.2210260001</v>
+        <v>3551578.8578989999</v>
       </c>
       <c r="F90" s="43">
-        <v>10921776.783611</v>
+        <v>9860487.7120040003</v>
       </c>
       <c r="G90" s="42">
-        <v>1246824.085427</v>
+        <v>977420.89715000102</v>
       </c>
       <c r="H90" s="42">
-        <v>5560029.8588349996</v>
+        <v>5195154.3373370003</v>
       </c>
       <c r="I90" s="42">
-        <v>4672323.4917940004</v>
+        <v>4406411.343262</v>
       </c>
       <c r="J90" s="43">
-        <v>11479177.436055999</v>
+        <v>10578986.577749001</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C91" s="39">
-        <v>59000.973940000003</v>
+        <v>45922.667946000001</v>
       </c>
       <c r="D91" s="39">
-        <v>48468.117751999998</v>
+        <v>72889.385712000003</v>
       </c>
       <c r="E91" s="39">
-        <v>7497.0729499999998</v>
+        <v>5867.9204639999998</v>
       </c>
       <c r="F91" s="40">
-        <v>114966.164642</v>
+        <v>124679.974122</v>
       </c>
       <c r="G91" s="39">
-        <v>9551.5962089999994</v>
+        <v>10611.069452</v>
       </c>
       <c r="H91" s="39">
-        <v>84963.347347999996</v>
+        <v>87111.322421999997</v>
       </c>
       <c r="I91" s="39">
-        <v>53412.178481000003</v>
+        <v>53759.295331000001</v>
       </c>
       <c r="J91" s="40">
-        <v>147927.122038</v>
+        <v>151481.68720499999</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C92" s="39">
-        <v>17394.689651000001</v>
+        <v>14064.709521000001</v>
       </c>
       <c r="D92" s="39">
-        <v>13759.125681</v>
+        <v>18119.819757000001</v>
       </c>
       <c r="E92" s="39">
-        <v>79731.397599999997</v>
+        <v>69058.295165000003</v>
       </c>
       <c r="F92" s="40">
-        <v>110885.21293199999</v>
+        <v>101242.824443</v>
       </c>
       <c r="G92" s="39">
-        <v>14130.729542999999</v>
+        <v>14755.493386</v>
       </c>
       <c r="H92" s="39">
-        <v>96990.421031000005</v>
+        <v>87123.028596000004</v>
       </c>
       <c r="I92" s="39">
-        <v>41725.939704999997</v>
+        <v>35902.953629000003</v>
       </c>
       <c r="J92" s="40">
-        <v>152847.090279</v>
+        <v>137781.475611</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C93" s="39">
-        <v>336.22356200000002</v>
+        <v>342.85966200000001</v>
       </c>
       <c r="D93" s="39">
-        <v>2346.6451189999998</v>
+        <v>1923.3500160000001</v>
       </c>
       <c r="E93" s="39">
-        <v>1232.810238</v>
+        <v>1256.588287</v>
       </c>
       <c r="F93" s="40">
-        <v>3915.678919</v>
+        <v>3522.7979650000002</v>
       </c>
       <c r="G93" s="39">
-        <v>597.90705800000001</v>
+        <v>477.21897000000001</v>
       </c>
       <c r="H93" s="39">
-        <v>5205.958329</v>
+        <v>4575.439652</v>
       </c>
       <c r="I93" s="39">
-        <v>3480.3778670000002</v>
+        <v>2862.1228900000001</v>
       </c>
       <c r="J93" s="40">
-        <v>9284.2432540000009</v>
+        <v>7914.7815119999996</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C94" s="39">
-        <v>13879.601273</v>
+        <v>12016.208911</v>
       </c>
       <c r="D94" s="39">
-        <v>255159.17066100001</v>
+        <v>231264.61344099999</v>
       </c>
       <c r="E94" s="39">
-        <v>91821.389420999898</v>
+        <v>86838.182155000002</v>
       </c>
       <c r="F94" s="40">
-        <v>360860.16135499999</v>
+        <v>330119.00450699998</v>
       </c>
       <c r="G94" s="39">
-        <v>41289.307246999997</v>
+        <v>29707.183761</v>
       </c>
       <c r="H94" s="39">
-        <v>246048.713479</v>
+        <v>239804.01530599999</v>
       </c>
       <c r="I94" s="39">
-        <v>128369.896649</v>
+        <v>111503.156538</v>
       </c>
       <c r="J94" s="40">
-        <v>415707.91737500002</v>
+        <v>381014.35560499999</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C95" s="39">
-        <v>14465.595445000001</v>
+        <v>13542.432994999999</v>
       </c>
       <c r="D95" s="39">
-        <v>30528.964671000002</v>
+        <v>36405.548321000002</v>
       </c>
       <c r="E95" s="39">
-        <v>2725.6955560000001</v>
+        <v>2576.7953149999998</v>
       </c>
       <c r="F95" s="40">
-        <v>47720.255671999999</v>
+        <v>52524.776631000001</v>
       </c>
       <c r="G95" s="39">
-        <v>4315.1071039999997</v>
+        <v>5207.2023300000001</v>
       </c>
       <c r="H95" s="39">
-        <v>29965.579729000001</v>
+        <v>32362.398545</v>
       </c>
       <c r="I95" s="39">
-        <v>18948.170805000002</v>
+        <v>19211.242985000001</v>
       </c>
       <c r="J95" s="40">
-        <v>53228.857638000001</v>
+        <v>56780.843860000001</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C96" s="42">
-        <v>93781.149776999999</v>
+        <v>71984.092199000006</v>
       </c>
       <c r="D96" s="42">
-        <v>49643.576367000001</v>
+        <v>51343.999651999999</v>
       </c>
       <c r="E96" s="42">
-        <v>12702.777291</v>
+        <v>13341.211541000001</v>
       </c>
       <c r="F96" s="43">
-        <v>156127.50343499999</v>
+        <v>136669.303392</v>
       </c>
       <c r="G96" s="42">
-        <v>10787.922313999999</v>
+        <v>9869.9034429999992</v>
       </c>
       <c r="H96" s="42">
-        <v>85184.938036000007</v>
+        <v>76729.240651</v>
       </c>
       <c r="I96" s="42">
-        <v>66754.526572000002</v>
+        <v>62216.533201999999</v>
       </c>
       <c r="J96" s="43">
-        <v>162727.38692200001</v>
+        <v>148815.67729600001</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C97" s="39">
-        <v>156376.24568399999</v>
+        <v>102620.463447</v>
       </c>
       <c r="D97" s="39">
-        <v>67063.771957000004</v>
+        <v>86451.392693999995</v>
       </c>
       <c r="E97" s="39">
-        <v>21431.105445000001</v>
+        <v>16773.776741000001</v>
       </c>
       <c r="F97" s="40">
-        <v>244871.12308600001</v>
+        <v>205845.63288200001</v>
       </c>
       <c r="G97" s="39">
-        <v>16253.677756999999</v>
+        <v>18613.377365</v>
       </c>
       <c r="H97" s="39">
-        <v>138376.868116</v>
+        <v>137013.67152199999</v>
       </c>
       <c r="I97" s="39">
-        <v>85248.544834</v>
+        <v>86253.427345000004</v>
       </c>
       <c r="J97" s="40">
-        <v>239879.090707</v>
+        <v>241880.47623199999</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C98" s="39">
-        <v>133142.216572</v>
+        <v>79295.221674999993</v>
       </c>
       <c r="D98" s="39">
-        <v>55163.835635000003</v>
+        <v>62491.776190999997</v>
       </c>
       <c r="E98" s="39">
-        <v>106877.207444</v>
+        <v>94888.120422000007</v>
       </c>
       <c r="F98" s="40">
-        <v>295183.25965099997</v>
+        <v>236675.118288</v>
       </c>
       <c r="G98" s="39">
-        <v>35278.997125000002</v>
+        <v>35463.803304000001</v>
       </c>
       <c r="H98" s="39">
-        <v>197898.19214699999</v>
+        <v>174325.43359299999</v>
       </c>
       <c r="I98" s="39">
-        <v>105152.739376</v>
+        <v>92248.786626999994</v>
       </c>
       <c r="J98" s="40">
-        <v>338329.928648</v>
+        <v>302038.02352400002</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C99" s="42">
-        <v>91715.060679999995</v>
+        <v>57884.745626999997</v>
       </c>
       <c r="D99" s="42">
-        <v>20617.254679999998</v>
+        <v>37178.459784999999</v>
       </c>
       <c r="E99" s="42">
-        <v>1835.2953299999999</v>
+        <v>2084.0601809999998</v>
       </c>
       <c r="F99" s="43">
-        <v>114167.61069</v>
+        <v>97147.265593000004</v>
       </c>
       <c r="G99" s="42">
-        <v>6620.1189480000003</v>
+        <v>7054.4884670000001</v>
       </c>
       <c r="H99" s="42">
-        <v>51800.672933000002</v>
+        <v>51628.318320999999</v>
       </c>
       <c r="I99" s="42">
-        <v>42126.394597999999</v>
+        <v>41147.114959999999</v>
       </c>
       <c r="J99" s="43">
-        <v>100547.186479</v>
+        <v>99829.921747999993</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
@@ -4379,7 +4352,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4393,7 +4366,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4407,7 +4380,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4421,7 +4394,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4435,7 +4408,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4471,7 +4444,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4495,7 +4468,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4508,7 +4481,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4532,7 +4505,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4545,7 +4518,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="171">
   <si>
     <t>Tableau 19 : Intensité du commerce dans l’industrie manufacturière</t>
   </si>
@@ -33,6 +33,30 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
+    <t>Exportations totales de produits non transformés (millions de dollars US), 2020</t>
+  </si>
+  <si>
+    <t>Exportations totales de produits semi-transformés (millions de dollars US), 2020</t>
+  </si>
+  <si>
+    <t>Total des exportations de produits transformés (millions de dollars US), 2020</t>
+  </si>
+  <si>
+    <t>Exportations totales de produits transformés et non transformés (millions de dollars US), 2020</t>
+  </si>
+  <si>
+    <t>Importations totales de produits non transformés (millions de dollars US), 2020</t>
+  </si>
+  <si>
+    <t>Importations totales de produits semi-transformés (millions de dollars US), 2020</t>
+  </si>
+  <si>
+    <t>Importations totales de produits transformés (millions de dollars US), 2020</t>
+  </si>
+  <si>
+    <t>Importations totales de produits transformés et non transformés (millions de dollars US), 2020</t>
+  </si>
+  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -453,7 +477,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>
@@ -1280,44 +1304,44 @@
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D2" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F2" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2" s="9" t="e">
-        <v>#N/A</v>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" s="12">
         <v>19275.515809</v>
@@ -1346,10 +1370,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" s="15">
         <v>3465.958533</v>
@@ -1378,10 +1402,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" s="19">
         <v>79.594103000000104</v>
@@ -1410,10 +1434,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C6" s="19">
         <v>387.15373499999998</v>
@@ -1442,10 +1466,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" s="19">
         <v>731.34260500000005</v>
@@ -1474,10 +1498,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" s="19">
         <v>2299.070526</v>
@@ -1506,10 +1530,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C9" s="19">
         <v>1200.4368910000001</v>
@@ -1538,10 +1562,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C10" s="19">
         <v>27435.975818999999</v>
@@ -1570,10 +1594,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C11" s="15">
         <v>741.65893100000005</v>
@@ -1602,10 +1626,10 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C12" s="22">
         <v>1214.519031</v>
@@ -1634,10 +1658,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C13" s="26">
         <v>56831.225982999997</v>
@@ -1666,10 +1690,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" s="19">
         <v>81.170609999999996</v>
@@ -1698,10 +1722,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C15" s="19">
         <v>2456.588933</v>
@@ -1730,10 +1754,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C16" s="19">
         <v>69.380066999999997</v>
@@ -1762,10 +1786,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C17" s="12">
         <v>1290.262195</v>
@@ -1794,10 +1818,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C18" s="12">
         <v>4055.854546</v>
@@ -1826,10 +1850,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C19" s="15">
         <v>1468.6187890000001</v>
@@ -1858,10 +1882,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C20" s="12">
         <v>2006.9213010000001</v>
@@ -1890,10 +1914,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C21" s="12">
         <v>3638.3663809999998</v>
@@ -1922,10 +1946,10 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C22" s="19">
         <v>4.0861780000000003</v>
@@ -1954,10 +1978,10 @@
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C23" s="26">
         <v>15071.249</v>
@@ -1986,10 +2010,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C24" s="19">
         <v>29.196867000000001</v>
@@ -2018,10 +2042,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C25" s="19">
         <v>50.164791999999998</v>
@@ -2050,10 +2074,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C26" s="19">
         <v>326.34698400000002</v>
@@ -2082,10 +2106,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C27" s="19">
         <v>1996.9783279999999</v>
@@ -2114,10 +2138,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C28" s="19">
         <v>2711.9170880000001</v>
@@ -2146,10 +2170,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C29" s="19">
         <v>1136.3919310000001</v>
@@ -2178,10 +2202,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C30" s="19">
         <v>158.708563</v>
@@ -2210,10 +2234,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C31" s="19">
         <v>210.162148</v>
@@ -2242,10 +2266,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C32" s="19">
         <v>16.721546</v>
@@ -2274,10 +2298,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C33" s="19">
         <v>140.90521100000001</v>
@@ -2306,10 +2330,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C34" s="15">
         <v>733.17847800000004</v>
@@ -2338,10 +2362,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C35" s="19">
         <v>1933.0926059999999</v>
@@ -2370,10 +2394,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C36" s="19">
         <v>2175.2068039999999</v>
@@ -2402,10 +2426,10 @@
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C37" s="19">
         <v>1190.7273909999999</v>
@@ -2434,10 +2458,10 @@
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C38" s="26">
         <v>12809.698737000001</v>
@@ -2466,10 +2490,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C39" s="12">
         <v>9810.4233700000004</v>
@@ -2498,10 +2522,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C40" s="19">
         <v>6864.4154159999998</v>
@@ -2530,10 +2554,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C41" s="12">
         <v>6330.2964540000003</v>
@@ -2562,10 +2586,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C42" s="12">
         <v>1788.8508790000001</v>
@@ -2594,10 +2618,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C43" s="19">
         <v>5804.7365259999997</v>
@@ -2626,10 +2650,10 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C44" s="19">
         <v>1002.073716</v>
@@ -2658,10 +2682,10 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C45" s="26">
         <v>31600.796361000001</v>
@@ -2690,10 +2714,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C46" s="19">
         <v>696.97695999999996</v>
@@ -2722,10 +2746,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C47" s="19">
         <v>786.65974000000006</v>
@@ -2754,10 +2778,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C48" s="19">
         <v>5.968604</v>
@@ -2786,10 +2810,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C49" s="19">
         <v>6701.2574180000001</v>
@@ -2818,10 +2842,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C50" s="19">
         <v>58.012839</v>
@@ -2850,10 +2874,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C51" s="15">
         <v>5130.6917789999998</v>
@@ -2882,10 +2906,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C52" s="19">
         <v>3223.3230050000002</v>
@@ -2914,10 +2938,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C53" s="19">
         <v>128.17790400000001</v>
@@ -2946,10 +2970,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C54" s="19">
         <v>510.46328099999999</v>
@@ -2978,10 +3002,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C55" s="19">
         <v>208.07313500000001</v>
@@ -3010,10 +3034,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C56" s="19">
         <v>355.61396500000001</v>
@@ -3042,10 +3066,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C57" s="12">
         <v>33671.102237999999</v>
@@ -3074,10 +3098,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C58" s="19">
         <v>887.68772000000001</v>
@@ -3106,10 +3130,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C59" s="19">
         <v>467.83916799999997</v>
@@ -3138,10 +3162,10 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C60" s="15">
         <v>540.37836500000003</v>
@@ -3171,7 +3195,7 @@
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C61" s="26">
         <v>53372.226121</v>
@@ -3201,7 +3225,7 @@
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C62" s="32">
         <v>169685.19620199999</v>
@@ -3231,7 +3255,7 @@
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C63" s="32">
         <v>1739502.30908</v>
@@ -3261,7 +3285,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C64" s="36">
         <v>277063.49287199997</v>
@@ -3291,7 +3315,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C65" s="39">
         <v>237567.404351</v>
@@ -3321,7 +3345,7 @@
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C66" s="42">
         <v>1909187.5052819999</v>
@@ -3351,7 +3375,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C67" s="39">
         <v>28415.003110000001</v>
@@ -3381,7 +3405,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C68" s="39">
         <v>78485.515948999993</v>
@@ -3411,7 +3435,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C69" s="39">
         <v>7102.3625190000002</v>
@@ -3441,7 +3465,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C70" s="39">
         <v>34556.926957000003</v>
@@ -3471,7 +3495,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C71" s="39">
         <v>53372.226121</v>
@@ -3501,7 +3525,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C72" s="39">
         <v>9083.3108780000093</v>
@@ -3531,7 +3555,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C73" s="39">
         <v>61816.070483000003</v>
@@ -3561,7 +3585,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C74" s="39">
         <v>24736.380945000001</v>
@@ -3591,7 +3615,7 @@
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C75" s="42">
         <v>23719.740322000001</v>
@@ -3621,7 +3645,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C76" s="39">
         <v>104121.550898</v>
@@ -3651,7 +3675,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C77" s="39">
         <v>215338.533807</v>
@@ -3681,7 +3705,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C78" s="39">
         <v>258862.38183999999</v>
@@ -3711,7 +3735,7 @@
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C79" s="42">
         <v>893150.75755600003</v>
@@ -3741,7 +3765,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C80" s="39">
         <v>81867.593173000001</v>
@@ -3771,7 +3795,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C81" s="39">
         <v>464050.91519799997</v>
@@ -3801,7 +3825,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C82" s="39">
         <v>87817.603029000005</v>
@@ -3831,7 +3855,7 @@
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C83" s="42">
         <v>1275451.3938819999</v>
@@ -3861,7 +3885,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C84" s="39">
         <v>19886.169270999999</v>
@@ -3891,7 +3915,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C85" s="39">
         <v>2656.4930669999999</v>
@@ -3921,7 +3945,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C86" s="39">
         <v>105545.641443</v>
@@ -3951,7 +3975,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C87" s="39">
         <v>143904.99797600001</v>
@@ -3981,7 +4005,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C88" s="39">
         <v>44236.663941999999</v>
@@ -4011,7 +4035,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C89" s="39">
         <v>557745.49614299997</v>
@@ -4041,7 +4065,7 @@
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C90" s="42">
         <v>1032074.388012</v>
@@ -4071,7 +4095,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C91" s="39">
         <v>45922.667946000001</v>
@@ -4101,7 +4125,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C92" s="39">
         <v>14064.709521000001</v>
@@ -4131,7 +4155,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C93" s="39">
         <v>342.85966200000001</v>
@@ -4161,7 +4185,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C94" s="39">
         <v>12016.208911</v>
@@ -4191,7 +4215,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C95" s="39">
         <v>13542.432994999999</v>
@@ -4221,7 +4245,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C96" s="42">
         <v>71984.092199000006</v>
@@ -4251,7 +4275,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C97" s="39">
         <v>102620.463447</v>
@@ -4281,7 +4305,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C98" s="39">
         <v>79295.221674999993</v>
@@ -4311,7 +4335,7 @@
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C99" s="42">
         <v>57884.745626999997</v>
@@ -4352,7 +4376,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4366,7 +4390,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4380,7 +4404,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4394,7 +4418,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4408,7 +4432,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4444,7 +4468,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4468,7 +4492,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4481,7 +4505,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4505,7 +4529,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4518,7 +4542,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
     <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -4566,7 +4566,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
